--- a/data/T30R11_data.xlsx
+++ b/data/T30R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1DFBFF-3826-465C-8BC0-937E9A0A447A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB617FE-5A34-4BE4-BAB1-398D507FB448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="453">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1531,6 +1531,24 @@
   </si>
   <si>
     <t>30-11-07-W</t>
+  </si>
+  <si>
+    <t>Surveyor_id</t>
+  </si>
+  <si>
+    <t>Date_surveyed</t>
+  </si>
+  <si>
+    <t>HSC</t>
+  </si>
+  <si>
+    <t>June 19-June 26</t>
+  </si>
+  <si>
+    <t>CWD</t>
+  </si>
+  <si>
+    <t>July 22-August 4</t>
   </si>
 </sst>
 </file>
@@ -1832,20 +1850,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="53.44140625" customWidth="1"/>
-    <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="9" max="10" width="53.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1874,37 +1893,41 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -1912,8 +1935,10 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1935,8 +1960,14 @@
       <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1958,8 +1989,9 @@
       <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1981,8 +2013,9 @@
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -2004,8 +2037,9 @@
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -2030,8 +2064,9 @@
       <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2053,8 +2088,9 @@
       <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -2076,11 +2112,12 @@
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="J8" s="5"/>
+      <c r="R8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2103,8 +2140,9 @@
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -2126,8 +2164,9 @@
       <c r="I10" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -2149,8 +2188,9 @@
       <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2172,11 +2212,12 @@
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="J12" s="5"/>
+      <c r="R12" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -2199,8 +2240,9 @@
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -2222,8 +2264,9 @@
       <c r="I14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2245,8 +2288,9 @@
       <c r="I15" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2268,11 +2312,12 @@
       <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="J16" s="5"/>
+      <c r="R16" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>26</v>
       </c>
@@ -2295,8 +2340,9 @@
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
@@ -2318,8 +2364,9 @@
       <c r="I18" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2341,8 +2388,9 @@
       <c r="I19" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -2364,11 +2412,12 @@
       <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="J20" s="5"/>
+      <c r="R20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -2391,8 +2440,9 @@
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -2414,8 +2464,9 @@
       <c r="I22" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2437,8 +2488,9 @@
       <c r="I23" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -2460,11 +2512,12 @@
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="J24" s="5"/>
+      <c r="R24" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2487,8 +2540,9 @@
       <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -2510,8 +2564,9 @@
       <c r="I26" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>18</v>
       </c>
@@ -2533,8 +2588,9 @@
       <c r="I27" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>24</v>
       </c>
@@ -2556,8 +2612,9 @@
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
@@ -2579,8 +2636,9 @@
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
@@ -2602,8 +2660,9 @@
       <c r="I30" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
@@ -2625,8 +2684,9 @@
       <c r="I31" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
@@ -2648,11 +2708,12 @@
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="J32" s="5"/>
+      <c r="R32" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
@@ -2675,8 +2736,9 @@
       <c r="I33" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
@@ -2699,8 +2761,9 @@
       <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
@@ -2722,8 +2785,9 @@
       <c r="I35" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>18</v>
       </c>
@@ -2745,8 +2809,9 @@
       <c r="I36" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -2768,8 +2833,9 @@
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
@@ -2791,8 +2857,9 @@
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
@@ -2814,8 +2881,9 @@
       <c r="I39" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>18</v>
       </c>
@@ -2837,8 +2905,9 @@
       <c r="I40" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -2860,11 +2929,12 @@
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="J41" s="5"/>
+      <c r="R41" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -2887,8 +2957,9 @@
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>27</v>
       </c>
@@ -2910,8 +2981,9 @@
       <c r="I43" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
@@ -2933,8 +3005,9 @@
       <c r="I44" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
@@ -2956,11 +3029,12 @@
       <c r="I45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="J45" s="5"/>
+      <c r="R45" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>26</v>
       </c>
@@ -2983,8 +3057,9 @@
       <c r="I46" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>27</v>
       </c>
@@ -3006,8 +3081,9 @@
       <c r="I47" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
@@ -3029,8 +3105,9 @@
       <c r="I48" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
@@ -3052,11 +3129,12 @@
       <c r="I49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P49" s="5" t="s">
+      <c r="J49" s="5"/>
+      <c r="R49" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
@@ -3079,8 +3157,9 @@
       <c r="I50" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>27</v>
       </c>
@@ -3102,8 +3181,9 @@
       <c r="I51" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>18</v>
       </c>
@@ -3125,8 +3205,9 @@
       <c r="I52" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>24</v>
       </c>
@@ -3148,8 +3229,9 @@
       <c r="I53" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>26</v>
       </c>
@@ -3171,8 +3253,9 @@
       <c r="I54" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>27</v>
       </c>
@@ -3197,8 +3280,9 @@
       <c r="I55" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>18</v>
       </c>
@@ -3220,8 +3304,9 @@
       <c r="I56" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -3243,8 +3328,9 @@
       <c r="I57" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>26</v>
       </c>
@@ -3266,8 +3352,9 @@
       <c r="I58" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
@@ -3289,8 +3376,9 @@
       <c r="I59" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
@@ -3312,8 +3400,9 @@
       <c r="I60" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -3335,8 +3424,9 @@
       <c r="I61" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>26</v>
       </c>
@@ -3358,8 +3448,9 @@
       <c r="I62" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>27</v>
       </c>
@@ -3381,8 +3472,9 @@
       <c r="I63" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>18</v>
       </c>
@@ -3404,8 +3496,9 @@
       <c r="I64" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>24</v>
       </c>
@@ -3427,8 +3520,9 @@
       <c r="I65" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>26</v>
       </c>
@@ -3450,8 +3544,9 @@
       <c r="I66" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>27</v>
       </c>
@@ -3473,8 +3568,9 @@
       <c r="I67" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>18</v>
       </c>
@@ -3496,8 +3592,9 @@
       <c r="I68" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -3519,8 +3616,9 @@
       <c r="I69" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>26</v>
       </c>
@@ -3542,8 +3640,9 @@
       <c r="I70" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>27</v>
       </c>
@@ -3565,8 +3664,9 @@
       <c r="I71" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>18</v>
       </c>
@@ -3588,8 +3688,9 @@
       <c r="I72" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>24</v>
       </c>
@@ -3611,8 +3712,9 @@
       <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>26</v>
       </c>
@@ -3634,8 +3736,9 @@
       <c r="I74" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>27</v>
       </c>
@@ -3657,8 +3760,9 @@
       <c r="I75" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>18</v>
       </c>
@@ -3680,8 +3784,9 @@
       <c r="I76" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>24</v>
       </c>
@@ -3703,8 +3808,9 @@
       <c r="I77" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>26</v>
       </c>
@@ -3726,8 +3832,9 @@
       <c r="I78" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>27</v>
       </c>
@@ -3749,8 +3856,9 @@
       <c r="I79" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>18</v>
       </c>
@@ -3772,8 +3880,9 @@
       <c r="I80" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
@@ -3795,8 +3904,9 @@
       <c r="I81" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>26</v>
       </c>
@@ -3818,8 +3928,9 @@
       <c r="I82" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>27</v>
       </c>
@@ -3841,8 +3952,9 @@
       <c r="I83" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>18</v>
       </c>
@@ -3864,8 +3976,9 @@
       <c r="I84" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>24</v>
       </c>
@@ -3887,8 +4000,9 @@
       <c r="I85" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>18</v>
       </c>
@@ -3910,8 +4024,9 @@
       <c r="I86" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>18</v>
       </c>
@@ -3933,8 +4048,9 @@
       <c r="I87" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>26</v>
       </c>
@@ -3956,8 +4072,9 @@
       <c r="I88" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J88" s="5"/>
+    </row>
+    <row r="89" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>27</v>
       </c>
@@ -3979,8 +4096,9 @@
       <c r="I89" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>18</v>
       </c>
@@ -4002,8 +4120,9 @@
       <c r="I90" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>24</v>
       </c>
@@ -4025,8 +4144,9 @@
       <c r="I91" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>26</v>
       </c>
@@ -4048,8 +4168,9 @@
       <c r="I92" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>27</v>
       </c>
@@ -4071,8 +4192,9 @@
       <c r="I93" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>18</v>
       </c>
@@ -4094,8 +4216,9 @@
       <c r="I94" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>18</v>
       </c>
@@ -4117,8 +4240,9 @@
       <c r="I95" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>24</v>
       </c>
@@ -4140,8 +4264,9 @@
       <c r="I96" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>26</v>
       </c>
@@ -4163,8 +4288,9 @@
       <c r="I97" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>27</v>
       </c>
@@ -4186,8 +4312,9 @@
       <c r="I98" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>18</v>
       </c>
@@ -4209,8 +4336,9 @@
       <c r="I99" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>24</v>
       </c>
@@ -4232,8 +4360,9 @@
       <c r="I100" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>26</v>
       </c>
@@ -4255,8 +4384,9 @@
       <c r="I101" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>27</v>
       </c>
@@ -4281,8 +4411,9 @@
       <c r="I102" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -4304,8 +4435,9 @@
       <c r="I103" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>24</v>
       </c>
@@ -4327,11 +4459,12 @@
       <c r="I104" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P104" s="5" t="s">
+      <c r="J104" s="5"/>
+      <c r="R104" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>26</v>
       </c>
@@ -4354,8 +4487,9 @@
       <c r="I105" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>27</v>
       </c>
@@ -4377,8 +4511,9 @@
       <c r="I106" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>18</v>
       </c>
@@ -4400,8 +4535,9 @@
       <c r="I107" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -4423,8 +4559,9 @@
       <c r="I108" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>18</v>
       </c>
@@ -4446,8 +4583,9 @@
       <c r="I109" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>26</v>
       </c>
@@ -4469,8 +4607,9 @@
       <c r="I110" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>27</v>
       </c>
@@ -4492,8 +4631,9 @@
       <c r="I111" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>18</v>
       </c>
@@ -4515,8 +4655,9 @@
       <c r="I112" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>24</v>
       </c>
@@ -4538,8 +4679,9 @@
       <c r="I113" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>26</v>
       </c>
@@ -4561,8 +4703,9 @@
       <c r="I114" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>27</v>
       </c>
@@ -4584,8 +4727,9 @@
       <c r="I115" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>18</v>
       </c>
@@ -4607,8 +4751,9 @@
       <c r="I116" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>24</v>
       </c>
@@ -4630,8 +4775,9 @@
       <c r="I117" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>26</v>
       </c>
@@ -4653,8 +4799,9 @@
       <c r="I118" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>27</v>
       </c>
@@ -4676,8 +4823,9 @@
       <c r="I119" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>18</v>
       </c>
@@ -4699,8 +4847,9 @@
       <c r="I120" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>24</v>
       </c>
@@ -4722,8 +4871,9 @@
       <c r="I121" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>18</v>
       </c>
@@ -4745,8 +4895,9 @@
       <c r="I122" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>26</v>
       </c>
@@ -4768,8 +4919,9 @@
       <c r="I123" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>27</v>
       </c>
@@ -4791,8 +4943,9 @@
       <c r="I124" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>18</v>
       </c>
@@ -4814,8 +4967,9 @@
       <c r="I125" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>24</v>
       </c>
@@ -4837,8 +4991,9 @@
       <c r="I126" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>26</v>
       </c>
@@ -4860,8 +5015,9 @@
       <c r="I127" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>27</v>
       </c>
@@ -4883,8 +5039,9 @@
       <c r="I128" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>18</v>
       </c>
@@ -4906,8 +5063,9 @@
       <c r="I129" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>24</v>
       </c>
@@ -4929,11 +5087,12 @@
       <c r="I130" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P130" s="5" t="s">
+      <c r="J130" s="5"/>
+      <c r="R130" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>26</v>
       </c>
@@ -4956,8 +5115,9 @@
       <c r="I131" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>27</v>
       </c>
@@ -4979,8 +5139,9 @@
       <c r="I132" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>18</v>
       </c>
@@ -5002,8 +5163,9 @@
       <c r="I133" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>24</v>
       </c>
@@ -5025,8 +5187,9 @@
       <c r="I134" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>26</v>
       </c>
@@ -5048,8 +5211,9 @@
       <c r="I135" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>27</v>
       </c>
@@ -5071,8 +5235,9 @@
       <c r="I136" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>18</v>
       </c>
@@ -5094,8 +5259,9 @@
       <c r="I137" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>24</v>
       </c>
@@ -5117,8 +5283,9 @@
       <c r="I138" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>26</v>
       </c>
@@ -5140,8 +5307,9 @@
       <c r="I139" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J139" s="5"/>
+    </row>
+    <row r="140" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>27</v>
       </c>
@@ -5163,8 +5331,9 @@
       <c r="I140" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>18</v>
       </c>
@@ -5186,8 +5355,9 @@
       <c r="I141" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>24</v>
       </c>
@@ -5209,11 +5379,12 @@
       <c r="I142" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P142" s="5" t="s">
+      <c r="J142" s="5"/>
+      <c r="R142" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>26</v>
       </c>
@@ -5236,8 +5407,9 @@
       <c r="I143" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>27</v>
       </c>
@@ -5259,8 +5431,9 @@
       <c r="I144" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>18</v>
       </c>
@@ -5282,8 +5455,9 @@
       <c r="I145" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J145" s="5"/>
+    </row>
+    <row r="146" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>18</v>
       </c>
@@ -5305,8 +5479,9 @@
       <c r="I146" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="147" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>24</v>
       </c>
@@ -5328,8 +5503,9 @@
       <c r="I147" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J147" s="5"/>
+    </row>
+    <row r="148" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>26</v>
       </c>
@@ -5351,8 +5527,9 @@
       <c r="I148" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>27</v>
       </c>
@@ -5377,8 +5554,9 @@
       <c r="I149" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>18</v>
       </c>
@@ -5400,8 +5578,9 @@
       <c r="I150" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>24</v>
       </c>
@@ -5423,11 +5602,12 @@
       <c r="I151" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P151" s="5" t="s">
+      <c r="J151" s="5"/>
+      <c r="R151" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>26</v>
       </c>
@@ -5450,8 +5630,9 @@
       <c r="I152" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>27</v>
       </c>
@@ -5473,8 +5654,9 @@
       <c r="I153" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>18</v>
       </c>
@@ -5496,8 +5678,9 @@
       <c r="I154" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J154" s="5"/>
+    </row>
+    <row r="155" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>18</v>
       </c>
@@ -5519,8 +5702,9 @@
       <c r="I155" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>18</v>
       </c>
@@ -5542,8 +5726,9 @@
       <c r="I156" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>24</v>
       </c>
@@ -5565,8 +5750,9 @@
       <c r="I157" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>26</v>
       </c>
@@ -5588,8 +5774,9 @@
       <c r="I158" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>27</v>
       </c>
@@ -5611,8 +5798,9 @@
       <c r="I159" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>18</v>
       </c>
@@ -5634,8 +5822,9 @@
       <c r="I160" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J160" s="5"/>
+    </row>
+    <row r="161" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>24</v>
       </c>
@@ -5657,8 +5846,9 @@
       <c r="I161" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>26</v>
       </c>
@@ -5680,8 +5870,9 @@
       <c r="I162" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>27</v>
       </c>
@@ -5703,8 +5894,9 @@
       <c r="I163" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>18</v>
       </c>
@@ -5726,8 +5918,9 @@
       <c r="I164" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>24</v>
       </c>
@@ -5749,8 +5942,9 @@
       <c r="I165" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>18</v>
       </c>
@@ -5772,8 +5966,9 @@
       <c r="I166" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J166" s="5"/>
+    </row>
+    <row r="167" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>26</v>
       </c>
@@ -5795,8 +5990,9 @@
       <c r="I167" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>27</v>
       </c>
@@ -5818,8 +6014,9 @@
       <c r="I168" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>18</v>
       </c>
@@ -5841,8 +6038,9 @@
       <c r="I169" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>18</v>
       </c>
@@ -5864,8 +6062,9 @@
       <c r="I170" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>24</v>
       </c>
@@ -5887,8 +6086,9 @@
       <c r="I171" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>18</v>
       </c>
@@ -5910,8 +6110,9 @@
       <c r="I172" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J172" s="5"/>
+    </row>
+    <row r="173" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>26</v>
       </c>
@@ -5933,8 +6134,9 @@
       <c r="I173" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>27</v>
       </c>
@@ -5956,8 +6158,9 @@
       <c r="I174" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>18</v>
       </c>
@@ -5979,8 +6182,9 @@
       <c r="I175" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>24</v>
       </c>
@@ -6002,11 +6206,12 @@
       <c r="I176" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P176" s="5" t="s">
+      <c r="J176" s="5"/>
+      <c r="R176" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>26</v>
       </c>
@@ -6029,8 +6234,9 @@
       <c r="I177" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>27</v>
       </c>
@@ -6052,8 +6258,9 @@
       <c r="I178" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J178" s="5"/>
+    </row>
+    <row r="179" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>18</v>
       </c>
@@ -6075,8 +6282,9 @@
       <c r="I179" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>24</v>
       </c>
@@ -6098,11 +6306,12 @@
       <c r="I180" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P180" s="5" t="s">
+      <c r="J180" s="5"/>
+      <c r="R180" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>26</v>
       </c>
@@ -6125,8 +6334,9 @@
       <c r="I181" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>27</v>
       </c>
@@ -6148,8 +6358,9 @@
       <c r="I182" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>18</v>
       </c>
@@ -6171,8 +6382,9 @@
       <c r="I183" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>24</v>
       </c>
@@ -6194,8 +6406,9 @@
       <c r="I184" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J184" s="5"/>
+    </row>
+    <row r="185" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>26</v>
       </c>
@@ -6217,8 +6430,9 @@
       <c r="I185" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>27</v>
       </c>
@@ -6240,8 +6454,9 @@
       <c r="I186" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>18</v>
       </c>
@@ -6263,8 +6478,9 @@
       <c r="I187" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J187" s="5"/>
+    </row>
+    <row r="188" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>24</v>
       </c>
@@ -6286,11 +6502,12 @@
       <c r="I188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P188" s="5" t="s">
+      <c r="J188" s="5"/>
+      <c r="R188" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>26</v>
       </c>
@@ -6313,8 +6530,9 @@
       <c r="I189" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>27</v>
       </c>
@@ -6336,8 +6554,9 @@
       <c r="I190" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>18</v>
       </c>
@@ -6359,8 +6578,9 @@
       <c r="I191" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>24</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="I192" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="193" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>26</v>
       </c>
@@ -6405,8 +6626,9 @@
       <c r="I193" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J193" s="5"/>
+    </row>
+    <row r="194" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>27</v>
       </c>
@@ -6428,8 +6650,9 @@
       <c r="I194" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>18</v>
       </c>
@@ -6451,8 +6674,9 @@
       <c r="I195" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>24</v>
       </c>
@@ -6477,17 +6701,18 @@
       <c r="I196" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M196" s="5" t="s">
+      <c r="J196" s="5"/>
+      <c r="O196" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N196" s="8">
+      <c r="P196" s="8">
         <v>44109</v>
       </c>
-      <c r="O196" s="5" t="s">
+      <c r="Q196" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>26</v>
       </c>
@@ -6512,17 +6737,18 @@
       <c r="I197" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M197" s="5" t="s">
+      <c r="J197" s="5"/>
+      <c r="O197" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="P197" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="O197" s="5" t="s">
+      <c r="Q197" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>27</v>
       </c>
@@ -6547,8 +6773,9 @@
       <c r="I198" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="199" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>18</v>
       </c>
@@ -6570,8 +6797,9 @@
       <c r="I199" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>24</v>
       </c>
@@ -6593,8 +6821,9 @@
       <c r="I200" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>18</v>
       </c>
@@ -6616,8 +6845,9 @@
       <c r="I201" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="202" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>26</v>
       </c>
@@ -6639,8 +6869,9 @@
       <c r="I202" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="203" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J202" s="5"/>
+    </row>
+    <row r="203" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>27</v>
       </c>
@@ -6665,8 +6896,9 @@
       <c r="I203" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="204" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>18</v>
       </c>
@@ -6688,8 +6920,9 @@
       <c r="I204" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="205" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>18</v>
       </c>
@@ -6711,8 +6944,9 @@
       <c r="I205" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J205" s="5"/>
+    </row>
+    <row r="206" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>24</v>
       </c>
@@ -6734,8 +6968,9 @@
       <c r="I206" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>26</v>
       </c>
@@ -6757,8 +6992,9 @@
       <c r="I207" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>27</v>
       </c>
@@ -6783,8 +7019,9 @@
       <c r="I208" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>18</v>
       </c>
@@ -6806,8 +7043,9 @@
       <c r="I209" s="5" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>24</v>
       </c>
@@ -6829,8 +7067,9 @@
       <c r="I210" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>26</v>
       </c>
@@ -6852,8 +7091,9 @@
       <c r="I211" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J211" s="5"/>
+    </row>
+    <row r="212" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>27</v>
       </c>
@@ -6875,8 +7115,9 @@
       <c r="I212" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>18</v>
       </c>
@@ -6898,8 +7139,9 @@
       <c r="I213" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>24</v>
       </c>
@@ -6921,8 +7163,9 @@
       <c r="I214" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J214" s="5"/>
+    </row>
+    <row r="215" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>26</v>
       </c>
@@ -6944,8 +7187,9 @@
       <c r="I215" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>27</v>
       </c>
@@ -6967,8 +7211,9 @@
       <c r="I216" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>18</v>
       </c>
@@ -6990,8 +7235,9 @@
       <c r="I217" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>24</v>
       </c>
@@ -7013,11 +7259,12 @@
       <c r="I218" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P218" s="5" t="s">
+      <c r="J218" s="5"/>
+      <c r="R218" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>26</v>
       </c>
@@ -7040,8 +7287,9 @@
       <c r="I219" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>27</v>
       </c>
@@ -7063,8 +7311,9 @@
       <c r="I220" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>18</v>
       </c>
@@ -7086,8 +7335,9 @@
       <c r="I221" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>24</v>
       </c>
@@ -7109,8 +7359,9 @@
       <c r="I222" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>26</v>
       </c>
@@ -7132,8 +7383,9 @@
       <c r="I223" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J223" s="5"/>
+    </row>
+    <row r="224" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>27</v>
       </c>
@@ -7155,8 +7407,9 @@
       <c r="I224" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>18</v>
       </c>
@@ -7178,8 +7431,9 @@
       <c r="I225" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>24</v>
       </c>
@@ -7201,8 +7455,9 @@
       <c r="I226" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>26</v>
       </c>
@@ -7224,8 +7479,9 @@
       <c r="I227" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>27</v>
       </c>
@@ -7247,8 +7503,9 @@
       <c r="I228" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>18</v>
       </c>
@@ -7270,8 +7527,9 @@
       <c r="I229" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J229" s="5"/>
+    </row>
+    <row r="230" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>24</v>
       </c>
@@ -7293,8 +7551,9 @@
       <c r="I230" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J230" s="5"/>
+    </row>
+    <row r="231" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>26</v>
       </c>
@@ -7316,8 +7575,9 @@
       <c r="I231" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>27</v>
       </c>
@@ -7339,8 +7599,9 @@
       <c r="I232" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J232" s="5"/>
+    </row>
+    <row r="233" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>18</v>
       </c>
@@ -7362,8 +7623,9 @@
       <c r="I233" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>24</v>
       </c>
@@ -7385,8 +7647,9 @@
       <c r="I234" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>26</v>
       </c>
@@ -7408,8 +7671,9 @@
       <c r="I235" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J235" s="5"/>
+    </row>
+    <row r="236" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>27</v>
       </c>
@@ -7431,8 +7695,9 @@
       <c r="I236" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>18</v>
       </c>
@@ -7454,8 +7719,9 @@
       <c r="I237" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J237" s="5"/>
+    </row>
+    <row r="238" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>24</v>
       </c>
@@ -7477,8 +7743,9 @@
       <c r="I238" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J238" s="5"/>
+    </row>
+    <row r="239" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>26</v>
       </c>
@@ -7500,8 +7767,9 @@
       <c r="I239" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J239" s="5"/>
+    </row>
+    <row r="240" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>27</v>
       </c>
@@ -7523,8 +7791,9 @@
       <c r="I240" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J240" s="5"/>
+    </row>
+    <row r="241" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>18</v>
       </c>
@@ -7546,8 +7815,9 @@
       <c r="I241" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J241" s="5"/>
+    </row>
+    <row r="242" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>18</v>
       </c>
@@ -7569,8 +7839,9 @@
       <c r="I242" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J242" s="5"/>
+    </row>
+    <row r="243" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>24</v>
       </c>
@@ -7592,8 +7863,9 @@
       <c r="I243" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J243" s="5"/>
+    </row>
+    <row r="244" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>18</v>
       </c>
@@ -7615,8 +7887,9 @@
       <c r="I244" s="5" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J244" s="5"/>
+    </row>
+    <row r="245" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>26</v>
       </c>
@@ -7638,8 +7911,9 @@
       <c r="I245" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J245" s="5"/>
+    </row>
+    <row r="246" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>27</v>
       </c>
@@ -7664,8 +7938,9 @@
       <c r="I246" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J246" s="5"/>
+    </row>
+    <row r="247" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>18</v>
       </c>
@@ -7687,8 +7962,9 @@
       <c r="I247" s="5" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J247" s="5"/>
+    </row>
+    <row r="248" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>18</v>
       </c>
@@ -7710,8 +7986,9 @@
       <c r="I248" s="5" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J248" s="5"/>
+    </row>
+    <row r="249" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>24</v>
       </c>
@@ -7733,11 +8010,12 @@
       <c r="I249" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P249" s="5" t="s">
+      <c r="J249" s="5"/>
+      <c r="R249" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>18</v>
       </c>
@@ -7760,8 +8038,9 @@
       <c r="I250" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J250" s="5"/>
+    </row>
+    <row r="251" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>26</v>
       </c>
@@ -7784,8 +8063,9 @@
       <c r="I251" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J251" s="5"/>
+    </row>
+    <row r="252" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>27</v>
       </c>
@@ -7810,8 +8090,9 @@
       <c r="I252" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J252" s="5"/>
+    </row>
+    <row r="253" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>18</v>
       </c>
@@ -7833,8 +8114,9 @@
       <c r="I253" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J253" s="5"/>
+    </row>
+    <row r="254" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>18</v>
       </c>
@@ -7856,8 +8138,9 @@
       <c r="I254" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J254" s="5"/>
+    </row>
+    <row r="255" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>24</v>
       </c>
@@ -7879,8 +8162,9 @@
       <c r="I255" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J255" s="5"/>
+    </row>
+    <row r="256" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>26</v>
       </c>
@@ -7902,8 +8186,9 @@
       <c r="I256" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J256" s="5"/>
+    </row>
+    <row r="257" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>27</v>
       </c>
@@ -7925,8 +8210,9 @@
       <c r="I257" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J257" s="5"/>
+    </row>
+    <row r="258" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>18</v>
       </c>
@@ -7948,8 +8234,9 @@
       <c r="I258" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J258" s="5"/>
+    </row>
+    <row r="259" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>24</v>
       </c>
@@ -7971,8 +8258,9 @@
       <c r="I259" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J259" s="5"/>
+    </row>
+    <row r="260" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>26</v>
       </c>
@@ -7994,8 +8282,9 @@
       <c r="I260" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J260" s="5"/>
+    </row>
+    <row r="261" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>27</v>
       </c>
@@ -8017,8 +8306,9 @@
       <c r="I261" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J261" s="5"/>
+    </row>
+    <row r="262" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>18</v>
       </c>
@@ -8040,8 +8330,9 @@
       <c r="I262" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J262" s="5"/>
+    </row>
+    <row r="263" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>24</v>
       </c>
@@ -8063,11 +8354,12 @@
       <c r="I263" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P263" s="5" t="s">
+      <c r="J263" s="5"/>
+      <c r="R263" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>26</v>
       </c>
@@ -8090,8 +8382,9 @@
       <c r="I264" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J264" s="5"/>
+    </row>
+    <row r="265" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>27</v>
       </c>
@@ -8113,8 +8406,9 @@
       <c r="I265" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J265" s="5"/>
+    </row>
+    <row r="266" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>18</v>
       </c>
@@ -8136,8 +8430,9 @@
       <c r="I266" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J266" s="5"/>
+    </row>
+    <row r="267" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>18</v>
       </c>
@@ -8159,8 +8454,9 @@
       <c r="I267" s="5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J267" s="5"/>
+    </row>
+    <row r="268" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>24</v>
       </c>
@@ -8182,11 +8478,12 @@
       <c r="I268" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P268" s="5" t="s">
+      <c r="J268" s="5"/>
+      <c r="R268" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>26</v>
       </c>
@@ -8209,8 +8506,9 @@
       <c r="I269" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J269" s="5"/>
+    </row>
+    <row r="270" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>27</v>
       </c>
@@ -8232,8 +8530,9 @@
       <c r="I270" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J270" s="5"/>
+    </row>
+    <row r="271" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>18</v>
       </c>
@@ -8255,8 +8554,9 @@
       <c r="I271" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J271" s="5"/>
+    </row>
+    <row r="272" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>24</v>
       </c>
@@ -8278,8 +8578,9 @@
       <c r="I272" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J272" s="5"/>
+    </row>
+    <row r="273" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>26</v>
       </c>
@@ -8301,8 +8602,9 @@
       <c r="I273" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J273" s="5"/>
+    </row>
+    <row r="274" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>27</v>
       </c>
@@ -8324,8 +8626,9 @@
       <c r="I274" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J274" s="5"/>
+    </row>
+    <row r="275" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>18</v>
       </c>
@@ -8347,8 +8650,9 @@
       <c r="I275" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J275" s="5"/>
+    </row>
+    <row r="276" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>24</v>
       </c>
@@ -8370,8 +8674,9 @@
       <c r="I276" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J276" s="5"/>
+    </row>
+    <row r="277" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>26</v>
       </c>
@@ -8393,8 +8698,9 @@
       <c r="I277" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J277" s="5"/>
+    </row>
+    <row r="278" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>27</v>
       </c>
@@ -8416,8 +8722,9 @@
       <c r="I278" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J278" s="5"/>
+    </row>
+    <row r="279" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>18</v>
       </c>
@@ -8439,8 +8746,9 @@
       <c r="I279" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J279" s="5"/>
+    </row>
+    <row r="280" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>24</v>
       </c>
@@ -8462,8 +8770,9 @@
       <c r="I280" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J280" s="5"/>
+    </row>
+    <row r="281" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>26</v>
       </c>
@@ -8485,8 +8794,9 @@
       <c r="I281" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J281" s="5"/>
+    </row>
+    <row r="282" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="5" t="s">
         <v>27</v>
       </c>
@@ -8508,8 +8818,9 @@
       <c r="I282" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J282" s="5"/>
+    </row>
+    <row r="283" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>18</v>
       </c>
@@ -8531,8 +8842,9 @@
       <c r="I283" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J283" s="5"/>
+    </row>
+    <row r="284" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>24</v>
       </c>
@@ -8554,8 +8866,9 @@
       <c r="I284" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J284" s="5"/>
+    </row>
+    <row r="285" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>18</v>
       </c>
@@ -8577,8 +8890,9 @@
       <c r="I285" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J285" s="5"/>
+    </row>
+    <row r="286" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>26</v>
       </c>
@@ -8600,8 +8914,9 @@
       <c r="I286" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J286" s="5"/>
+    </row>
+    <row r="287" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>27</v>
       </c>
@@ -8623,8 +8938,9 @@
       <c r="I287" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J287" s="5"/>
+    </row>
+    <row r="288" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>18</v>
       </c>
@@ -8646,8 +8962,9 @@
       <c r="I288" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J288" s="5"/>
+    </row>
+    <row r="289" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>24</v>
       </c>
@@ -8669,8 +8986,9 @@
       <c r="I289" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J289" s="5"/>
+    </row>
+    <row r="290" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>26</v>
       </c>
@@ -8692,8 +9010,9 @@
       <c r="I290" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J290" s="5"/>
+    </row>
+    <row r="291" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>27</v>
       </c>
@@ -8715,8 +9034,9 @@
       <c r="I291" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J291" s="5"/>
+    </row>
+    <row r="292" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>18</v>
       </c>
@@ -8738,8 +9058,9 @@
       <c r="I292" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J292" s="5"/>
+    </row>
+    <row r="293" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>24</v>
       </c>
@@ -8761,8 +9082,9 @@
       <c r="I293" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J293" s="5"/>
+    </row>
+    <row r="294" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>26</v>
       </c>
@@ -8784,8 +9106,9 @@
       <c r="I294" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J294" s="5"/>
+    </row>
+    <row r="295" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>27</v>
       </c>
@@ -8807,8 +9130,9 @@
       <c r="I295" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J295" s="5"/>
+    </row>
+    <row r="296" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>18</v>
       </c>
@@ -8830,8 +9154,9 @@
       <c r="I296" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J296" s="5"/>
+    </row>
+    <row r="297" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>24</v>
       </c>
@@ -8853,8 +9178,9 @@
       <c r="I297" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J297" s="5"/>
+    </row>
+    <row r="298" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>26</v>
       </c>
@@ -8876,8 +9202,9 @@
       <c r="I298" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="299" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J298" s="5"/>
+    </row>
+    <row r="299" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>27</v>
       </c>
@@ -8899,8 +9226,9 @@
       <c r="I299" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="300" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J299" s="5"/>
+    </row>
+    <row r="300" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>18</v>
       </c>
@@ -8922,8 +9250,9 @@
       <c r="I300" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="301" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J300" s="5"/>
+    </row>
+    <row r="301" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>24</v>
       </c>
@@ -8945,11 +9274,12 @@
       <c r="I301" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P301" s="5" t="s">
+      <c r="J301" s="5"/>
+      <c r="R301" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>26</v>
       </c>
@@ -8972,8 +9302,9 @@
       <c r="I302" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="303" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J302" s="5"/>
+    </row>
+    <row r="303" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>27</v>
       </c>
@@ -8995,8 +9326,9 @@
       <c r="I303" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="304" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J303" s="5"/>
+    </row>
+    <row r="304" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>18</v>
       </c>
@@ -9018,8 +9350,9 @@
       <c r="I304" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="305" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J304" s="5"/>
+    </row>
+    <row r="305" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>24</v>
       </c>
@@ -9041,11 +9374,12 @@
       <c r="I305" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="P305" s="5" t="s">
+      <c r="J305" s="5"/>
+      <c r="R305" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>26</v>
       </c>
@@ -9068,8 +9402,9 @@
       <c r="I306" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="307" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J306" s="5"/>
+    </row>
+    <row r="307" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="5" t="s">
         <v>27</v>
       </c>
@@ -9091,8 +9426,9 @@
       <c r="I307" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="308" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J307" s="5"/>
+    </row>
+    <row r="308" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="5" t="s">
         <v>18</v>
       </c>
@@ -9114,8 +9450,9 @@
       <c r="I308" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="309" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J308" s="5"/>
+    </row>
+    <row r="309" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="5" t="s">
         <v>24</v>
       </c>
@@ -9137,8 +9474,9 @@
       <c r="I309" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="310" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J309" s="5"/>
+    </row>
+    <row r="310" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="5" t="s">
         <v>26</v>
       </c>
@@ -9160,8 +9498,9 @@
       <c r="I310" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="311" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J310" s="5"/>
+    </row>
+    <row r="311" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>27</v>
       </c>
@@ -9183,32 +9522,33 @@
       <c r="I311" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="312" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J311" s="5"/>
+    </row>
+    <row r="312" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D312" s="7"/>
     </row>
-    <row r="313" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D313" s="7"/>
     </row>
-    <row r="314" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D314" s="7"/>
     </row>
-    <row r="315" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D315" s="7"/>
     </row>
-    <row r="316" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D316" s="7"/>
     </row>
-    <row r="317" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D317" s="7"/>
     </row>
-    <row r="318" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D318" s="7"/>
     </row>
-    <row r="319" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D319" s="7"/>
     </row>
-    <row r="320" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D320" s="7"/>
     </row>
     <row r="321" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -11263,20 +11603,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB1000"/>
+  <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="40.44140625" customWidth="1"/>
-    <col min="10" max="10" width="25.77734375" customWidth="1"/>
+    <col min="9" max="10" width="40.44140625" customWidth="1"/>
+    <col min="11" max="12" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11305,37 +11645,41 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
@@ -11343,8 +11687,10 @@
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
-    </row>
-    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+    </row>
+    <row r="2" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -11366,8 +11712,14 @@
       <c r="I2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J2" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -11389,8 +11741,9 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -11412,8 +11765,9 @@
       <c r="I4" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -11435,8 +11789,9 @@
       <c r="I5" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
@@ -11458,8 +11813,9 @@
       <c r="I6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>27</v>
       </c>
@@ -11481,8 +11837,9 @@
       <c r="I7" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -11504,8 +11861,9 @@
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -11527,8 +11885,9 @@
       <c r="I9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -11550,8 +11909,9 @@
       <c r="I10" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -11573,8 +11933,9 @@
       <c r="I11" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -11596,8 +11957,9 @@
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -11619,8 +11981,9 @@
       <c r="I13" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -11642,8 +12005,9 @@
       <c r="I14" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -11665,8 +12029,9 @@
       <c r="I15" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
@@ -11688,8 +12053,9 @@
       <c r="I16" s="5" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -11711,8 +12077,9 @@
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -11734,8 +12101,9 @@
       <c r="I18" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
@@ -11757,8 +12125,9 @@
       <c r="I19" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
@@ -11780,8 +12149,9 @@
       <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
@@ -11803,8 +12173,9 @@
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -11826,8 +12197,9 @@
       <c r="I22" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -11849,8 +12221,9 @@
       <c r="I23" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -11872,8 +12245,9 @@
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -11895,8 +12269,9 @@
       <c r="I25" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
@@ -11918,8 +12293,9 @@
       <c r="I26" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
@@ -11941,8 +12317,9 @@
       <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
@@ -11964,8 +12341,9 @@
       <c r="I28" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
@@ -11987,8 +12365,9 @@
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>26</v>
       </c>
@@ -12010,8 +12389,9 @@
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
@@ -12033,8 +12413,9 @@
       <c r="I31" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
@@ -12056,8 +12437,9 @@
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -12079,8 +12461,9 @@
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>27</v>
       </c>
@@ -12102,8 +12485,9 @@
       <c r="I34" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
@@ -12125,8 +12509,9 @@
       <c r="I35" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>26</v>
       </c>
@@ -12148,8 +12533,9 @@
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>27</v>
       </c>
@@ -12171,8 +12557,9 @@
       <c r="I37" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>24</v>
       </c>
@@ -12194,8 +12581,9 @@
       <c r="I38" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>26</v>
       </c>
@@ -12217,8 +12605,9 @@
       <c r="I39" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
@@ -12240,8 +12629,9 @@
       <c r="I40" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>24</v>
       </c>
@@ -12263,8 +12653,9 @@
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>26</v>
       </c>
@@ -12286,8 +12677,9 @@
       <c r="I42" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>27</v>
       </c>
@@ -12309,8 +12701,9 @@
       <c r="I43" s="5" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>24</v>
       </c>
@@ -12332,8 +12725,9 @@
       <c r="I44" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>26</v>
       </c>
@@ -12355,8 +12749,9 @@
       <c r="I45" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>27</v>
       </c>
@@ -12378,8 +12773,9 @@
       <c r="I46" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>24</v>
       </c>
@@ -12401,8 +12797,9 @@
       <c r="I47" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>26</v>
       </c>
@@ -12424,8 +12821,9 @@
       <c r="I48" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>27</v>
       </c>
@@ -12447,8 +12845,9 @@
       <c r="I49" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>18</v>
       </c>
@@ -12470,8 +12869,9 @@
       <c r="I50" s="5" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
@@ -12493,8 +12893,9 @@
       <c r="I51" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>26</v>
       </c>
@@ -12516,8 +12917,9 @@
       <c r="I52" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>27</v>
       </c>
@@ -12539,8 +12941,9 @@
       <c r="I53" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>24</v>
       </c>
@@ -12562,8 +12965,9 @@
       <c r="I54" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>26</v>
       </c>
@@ -12585,8 +12989,9 @@
       <c r="I55" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>27</v>
       </c>
@@ -12608,8 +13013,9 @@
       <c r="I56" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>24</v>
       </c>
@@ -12631,8 +13037,9 @@
       <c r="I57" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>26</v>
       </c>
@@ -12654,8 +13061,9 @@
       <c r="I58" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
@@ -12677,8 +13085,9 @@
       <c r="I59" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>24</v>
       </c>
@@ -12700,8 +13109,9 @@
       <c r="I60" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>26</v>
       </c>
@@ -12723,8 +13133,9 @@
       <c r="I61" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>27</v>
       </c>
@@ -12746,8 +13157,9 @@
       <c r="I62" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>24</v>
       </c>
@@ -12769,8 +13181,9 @@
       <c r="I63" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>26</v>
       </c>
@@ -12792,8 +13205,9 @@
       <c r="I64" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>27</v>
       </c>
@@ -12815,8 +13229,9 @@
       <c r="I65" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>24</v>
       </c>
@@ -12838,8 +13253,9 @@
       <c r="I66" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
@@ -12861,8 +13277,9 @@
       <c r="I67" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>27</v>
       </c>
@@ -12884,8 +13301,9 @@
       <c r="I68" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
@@ -12907,8 +13325,9 @@
       <c r="I69" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>26</v>
       </c>
@@ -12930,8 +13349,9 @@
       <c r="I70" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>27</v>
       </c>
@@ -12953,8 +13373,9 @@
       <c r="I71" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>24</v>
       </c>
@@ -12976,8 +13397,9 @@
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -12999,8 +13421,9 @@
       <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -13022,8 +13445,9 @@
       <c r="I74" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>24</v>
       </c>
@@ -13045,8 +13469,9 @@
       <c r="I75" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
@@ -13068,8 +13493,9 @@
       <c r="I76" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
@@ -13091,8 +13517,9 @@
       <c r="I77" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>24</v>
       </c>
@@ -13114,8 +13541,9 @@
       <c r="I78" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>26</v>
       </c>
@@ -13137,11 +13565,13 @@
       <c r="I79" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J79" s="5" t="s">
+      <c r="J79" s="5"/>
+      <c r="K79" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>27</v>
       </c>
@@ -13163,8 +13593,9 @@
       <c r="I80" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
@@ -13186,8 +13617,9 @@
       <c r="I81" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>26</v>
       </c>
@@ -13209,8 +13641,9 @@
       <c r="I82" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>27</v>
       </c>
@@ -13232,8 +13665,9 @@
       <c r="I83" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>24</v>
       </c>
@@ -13255,8 +13689,9 @@
       <c r="I84" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>26</v>
       </c>
@@ -13278,11 +13713,13 @@
       <c r="I85" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J85" s="5"/>
+      <c r="K85" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>27</v>
       </c>
@@ -13304,8 +13741,9 @@
       <c r="I86" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>24</v>
       </c>
@@ -13327,8 +13765,9 @@
       <c r="I87" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>26</v>
       </c>
@@ -13350,11 +13789,13 @@
       <c r="I88" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" s="5"/>
+      <c r="K88" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>27</v>
       </c>
@@ -13376,8 +13817,9 @@
       <c r="I89" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J89" s="5"/>
+    </row>
+    <row r="90" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>24</v>
       </c>
@@ -13399,8 +13841,9 @@
       <c r="I90" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J90" s="5"/>
+    </row>
+    <row r="91" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>26</v>
       </c>
@@ -13422,8 +13865,9 @@
       <c r="I91" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J91" s="5"/>
+    </row>
+    <row r="92" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>27</v>
       </c>
@@ -13445,8 +13889,9 @@
       <c r="I92" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J92" s="5"/>
+    </row>
+    <row r="93" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>24</v>
       </c>
@@ -13468,8 +13913,9 @@
       <c r="I93" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J93" s="5"/>
+    </row>
+    <row r="94" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>26</v>
       </c>
@@ -13491,8 +13937,9 @@
       <c r="I94" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J94" s="5"/>
+    </row>
+    <row r="95" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>27</v>
       </c>
@@ -13514,8 +13961,9 @@
       <c r="I95" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>24</v>
       </c>
@@ -13537,8 +13985,9 @@
       <c r="I96" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>26</v>
       </c>
@@ -13560,8 +14009,9 @@
       <c r="I97" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>27</v>
       </c>
@@ -13583,8 +14033,9 @@
       <c r="I98" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J98" s="5"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>24</v>
       </c>
@@ -13606,8 +14057,9 @@
       <c r="I99" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J99" s="5"/>
+    </row>
+    <row r="100" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>26</v>
       </c>
@@ -13629,8 +14081,9 @@
       <c r="I100" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J100" s="5"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>27</v>
       </c>
@@ -13652,8 +14105,9 @@
       <c r="I101" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J101" s="5"/>
+    </row>
+    <row r="102" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
@@ -13675,8 +14129,9 @@
       <c r="I102" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J102" s="5"/>
+    </row>
+    <row r="103" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>26</v>
       </c>
@@ -13698,8 +14153,9 @@
       <c r="I103" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>27</v>
       </c>
@@ -13721,8 +14177,9 @@
       <c r="I104" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J104" s="5"/>
+    </row>
+    <row r="105" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>24</v>
       </c>
@@ -13744,8 +14201,9 @@
       <c r="I105" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J105" s="5"/>
+    </row>
+    <row r="106" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>26</v>
       </c>
@@ -13767,8 +14225,9 @@
       <c r="I106" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J106" s="5"/>
+    </row>
+    <row r="107" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>27</v>
       </c>
@@ -13790,8 +14249,9 @@
       <c r="I107" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J107" s="5"/>
+    </row>
+    <row r="108" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>24</v>
       </c>
@@ -13813,8 +14273,9 @@
       <c r="I108" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J108" s="5"/>
+    </row>
+    <row r="109" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>26</v>
       </c>
@@ -13836,8 +14297,9 @@
       <c r="I109" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J109" s="5"/>
+    </row>
+    <row r="110" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>27</v>
       </c>
@@ -13859,8 +14321,9 @@
       <c r="I110" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J110" s="5"/>
+    </row>
+    <row r="111" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>24</v>
       </c>
@@ -13882,8 +14345,9 @@
       <c r="I111" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J111" s="5"/>
+    </row>
+    <row r="112" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>26</v>
       </c>
@@ -13905,8 +14369,9 @@
       <c r="I112" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J112" s="5"/>
+    </row>
+    <row r="113" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>27</v>
       </c>
@@ -13928,8 +14393,9 @@
       <c r="I113" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J113" s="5"/>
+    </row>
+    <row r="114" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>24</v>
       </c>
@@ -13951,8 +14417,9 @@
       <c r="I114" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J114" s="5"/>
+    </row>
+    <row r="115" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>26</v>
       </c>
@@ -13974,8 +14441,9 @@
       <c r="I115" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J115" s="5"/>
+    </row>
+    <row r="116" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>27</v>
       </c>
@@ -13997,8 +14465,9 @@
       <c r="I116" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J116" s="5"/>
+    </row>
+    <row r="117" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>24</v>
       </c>
@@ -14020,8 +14489,9 @@
       <c r="I117" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J117" s="5"/>
+    </row>
+    <row r="118" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>26</v>
       </c>
@@ -14043,8 +14513,9 @@
       <c r="I118" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J118" s="5"/>
+    </row>
+    <row r="119" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>27</v>
       </c>
@@ -14066,8 +14537,9 @@
       <c r="I119" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>24</v>
       </c>
@@ -14089,8 +14561,9 @@
       <c r="I120" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J120" s="5"/>
+    </row>
+    <row r="121" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>26</v>
       </c>
@@ -14112,8 +14585,9 @@
       <c r="I121" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J121" s="5"/>
+    </row>
+    <row r="122" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>27</v>
       </c>
@@ -14135,8 +14609,9 @@
       <c r="I122" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J122" s="5"/>
+    </row>
+    <row r="123" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>24</v>
       </c>
@@ -14158,8 +14633,9 @@
       <c r="I123" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J123" s="5"/>
+    </row>
+    <row r="124" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>26</v>
       </c>
@@ -14181,8 +14657,9 @@
       <c r="I124" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J124" s="5"/>
+    </row>
+    <row r="125" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>27</v>
       </c>
@@ -14204,8 +14681,9 @@
       <c r="I125" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J125" s="5"/>
+    </row>
+    <row r="126" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>24</v>
       </c>
@@ -14227,8 +14705,9 @@
       <c r="I126" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J126" s="5"/>
+    </row>
+    <row r="127" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>26</v>
       </c>
@@ -14250,8 +14729,9 @@
       <c r="I127" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J127" s="5"/>
+    </row>
+    <row r="128" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>27</v>
       </c>
@@ -14273,8 +14753,9 @@
       <c r="I128" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J128" s="5"/>
+    </row>
+    <row r="129" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>24</v>
       </c>
@@ -14296,8 +14777,9 @@
       <c r="I129" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J129" s="5"/>
+    </row>
+    <row r="130" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>26</v>
       </c>
@@ -14319,8 +14801,9 @@
       <c r="I130" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J130" s="5"/>
+    </row>
+    <row r="131" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>27</v>
       </c>
@@ -14342,8 +14825,9 @@
       <c r="I131" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J131" s="5"/>
+    </row>
+    <row r="132" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>24</v>
       </c>
@@ -14365,8 +14849,9 @@
       <c r="I132" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J132" s="5"/>
+    </row>
+    <row r="133" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>26</v>
       </c>
@@ -14388,8 +14873,9 @@
       <c r="I133" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J133" s="5"/>
+    </row>
+    <row r="134" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>27</v>
       </c>
@@ -14411,8 +14897,9 @@
       <c r="I134" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J134" s="5"/>
+    </row>
+    <row r="135" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>24</v>
       </c>
@@ -14434,8 +14921,9 @@
       <c r="I135" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J135" s="5"/>
+    </row>
+    <row r="136" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>26</v>
       </c>
@@ -14457,8 +14945,9 @@
       <c r="I136" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J136" s="5"/>
+    </row>
+    <row r="137" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>27</v>
       </c>
@@ -14480,8 +14969,9 @@
       <c r="I137" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J137" s="5"/>
+    </row>
+    <row r="138" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>24</v>
       </c>
@@ -14503,8 +14993,9 @@
       <c r="I138" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J138" s="5"/>
+    </row>
+    <row r="139" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>26</v>
       </c>
@@ -14526,11 +15017,13 @@
       <c r="I139" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="J139" s="5" t="s">
+      <c r="J139" s="5"/>
+      <c r="K139" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L139" s="5"/>
+    </row>
+    <row r="140" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>27</v>
       </c>
@@ -14552,8 +15045,9 @@
       <c r="I140" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J140" s="5"/>
+    </row>
+    <row r="141" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>24</v>
       </c>
@@ -14575,8 +15069,9 @@
       <c r="I141" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J141" s="5"/>
+    </row>
+    <row r="142" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>26</v>
       </c>
@@ -14598,8 +15093,9 @@
       <c r="I142" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J142" s="5"/>
+    </row>
+    <row r="143" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>27</v>
       </c>
@@ -14621,8 +15117,9 @@
       <c r="I143" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J143" s="5"/>
+    </row>
+    <row r="144" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>24</v>
       </c>
@@ -14644,8 +15141,9 @@
       <c r="I144" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J144" s="5"/>
+    </row>
+    <row r="145" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>26</v>
       </c>
@@ -14667,11 +15165,13 @@
       <c r="I145" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J145" s="5" t="s">
+      <c r="J145" s="5"/>
+      <c r="K145" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L145" s="5"/>
+    </row>
+    <row r="146" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>27</v>
       </c>
@@ -14693,8 +15193,9 @@
       <c r="I146" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J146" s="5"/>
+    </row>
+    <row r="147" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>24</v>
       </c>
@@ -14716,11 +15217,13 @@
       <c r="I147" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J147" s="5" t="s">
+      <c r="J147" s="5"/>
+      <c r="K147" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L147" s="5"/>
+    </row>
+    <row r="148" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>26</v>
       </c>
@@ -14742,8 +15245,9 @@
       <c r="I148" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J148" s="5"/>
+    </row>
+    <row r="149" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>27</v>
       </c>
@@ -14765,8 +15269,9 @@
       <c r="I149" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J149" s="5"/>
+    </row>
+    <row r="150" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>24</v>
       </c>
@@ -14788,8 +15293,9 @@
       <c r="I150" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J150" s="5"/>
+    </row>
+    <row r="151" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>26</v>
       </c>
@@ -14811,11 +15317,13 @@
       <c r="I151" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J151" s="5" t="s">
+      <c r="J151" s="5"/>
+      <c r="K151" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L151" s="5"/>
+    </row>
+    <row r="152" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>27</v>
       </c>
@@ -14837,8 +15345,9 @@
       <c r="I152" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J152" s="5"/>
+    </row>
+    <row r="153" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>24</v>
       </c>
@@ -14860,8 +15369,9 @@
       <c r="I153" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J153" s="5"/>
+    </row>
+    <row r="154" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>26</v>
       </c>
@@ -14883,11 +15393,13 @@
       <c r="I154" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J154" s="5" t="s">
+      <c r="J154" s="5"/>
+      <c r="K154" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L154" s="5"/>
+    </row>
+    <row r="155" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>27</v>
       </c>
@@ -14909,8 +15421,9 @@
       <c r="I155" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J155" s="5"/>
+    </row>
+    <row r="156" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>24</v>
       </c>
@@ -14932,8 +15445,9 @@
       <c r="I156" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J156" s="5"/>
+    </row>
+    <row r="157" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>26</v>
       </c>
@@ -14955,8 +15469,9 @@
       <c r="I157" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J157" s="5"/>
+    </row>
+    <row r="158" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>27</v>
       </c>
@@ -14978,8 +15493,9 @@
       <c r="I158" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J158" s="5"/>
+    </row>
+    <row r="159" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>24</v>
       </c>
@@ -15001,8 +15517,9 @@
       <c r="I159" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J159" s="5"/>
+    </row>
+    <row r="160" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>26</v>
       </c>
@@ -15024,11 +15541,13 @@
       <c r="I160" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J160" s="5" t="s">
+      <c r="J160" s="5"/>
+      <c r="K160" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L160" s="5"/>
+    </row>
+    <row r="161" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>27</v>
       </c>
@@ -15053,8 +15572,9 @@
       <c r="I161" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J161" s="5"/>
+    </row>
+    <row r="162" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>24</v>
       </c>
@@ -15076,8 +15596,9 @@
       <c r="I162" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J162" s="5"/>
+    </row>
+    <row r="163" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>26</v>
       </c>
@@ -15099,8 +15620,9 @@
       <c r="I163" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J163" s="5"/>
+    </row>
+    <row r="164" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>27</v>
       </c>
@@ -15122,8 +15644,9 @@
       <c r="I164" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J164" s="5"/>
+    </row>
+    <row r="165" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>24</v>
       </c>
@@ -15145,8 +15668,9 @@
       <c r="I165" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J165" s="5"/>
+    </row>
+    <row r="166" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>26</v>
       </c>
@@ -15168,11 +15692,13 @@
       <c r="I166" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J166" s="5" t="s">
+      <c r="J166" s="5"/>
+      <c r="K166" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L166" s="5"/>
+    </row>
+    <row r="167" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>27</v>
       </c>
@@ -15194,8 +15720,9 @@
       <c r="I167" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J167" s="5"/>
+    </row>
+    <row r="168" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>24</v>
       </c>
@@ -15217,8 +15744,9 @@
       <c r="I168" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J168" s="5"/>
+    </row>
+    <row r="169" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>26</v>
       </c>
@@ -15240,8 +15768,9 @@
       <c r="I169" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J169" s="5"/>
+    </row>
+    <row r="170" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>27</v>
       </c>
@@ -15263,8 +15792,9 @@
       <c r="I170" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J170" s="5"/>
+    </row>
+    <row r="171" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>24</v>
       </c>
@@ -15286,8 +15816,9 @@
       <c r="I171" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J171" s="5"/>
+    </row>
+    <row r="172" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>26</v>
       </c>
@@ -15309,11 +15840,13 @@
       <c r="I172" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J172" s="5" t="s">
+      <c r="J172" s="5"/>
+      <c r="K172" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L172" s="5"/>
+    </row>
+    <row r="173" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>27</v>
       </c>
@@ -15335,8 +15868,9 @@
       <c r="I173" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J173" s="5"/>
+    </row>
+    <row r="174" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>24</v>
       </c>
@@ -15358,8 +15892,9 @@
       <c r="I174" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J174" s="5"/>
+    </row>
+    <row r="175" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>26</v>
       </c>
@@ -15381,8 +15916,9 @@
       <c r="I175" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J175" s="5"/>
+    </row>
+    <row r="176" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>27</v>
       </c>
@@ -15404,8 +15940,9 @@
       <c r="I176" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J176" s="5"/>
+    </row>
+    <row r="177" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>24</v>
       </c>
@@ -15427,8 +15964,9 @@
       <c r="I177" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J177" s="5"/>
+    </row>
+    <row r="178" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>26</v>
       </c>
@@ -15450,11 +15988,13 @@
       <c r="I178" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J178" s="5" t="s">
+      <c r="J178" s="5"/>
+      <c r="K178" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L178" s="5"/>
+    </row>
+    <row r="179" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>27</v>
       </c>
@@ -15476,8 +16016,9 @@
       <c r="I179" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J179" s="5"/>
+    </row>
+    <row r="180" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>24</v>
       </c>
@@ -15499,8 +16040,9 @@
       <c r="I180" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J180" s="5"/>
+    </row>
+    <row r="181" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>26</v>
       </c>
@@ -15522,8 +16064,9 @@
       <c r="I181" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J181" s="5"/>
+    </row>
+    <row r="182" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>27</v>
       </c>
@@ -15545,8 +16088,9 @@
       <c r="I182" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J182" s="5"/>
+    </row>
+    <row r="183" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>24</v>
       </c>
@@ -15568,8 +16112,9 @@
       <c r="I183" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J183" s="5"/>
+    </row>
+    <row r="184" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>26</v>
       </c>
@@ -15591,11 +16136,13 @@
       <c r="I184" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J184" s="5" t="s">
+      <c r="J184" s="5"/>
+      <c r="K184" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L184" s="5"/>
+    </row>
+    <row r="185" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>27</v>
       </c>
@@ -15617,8 +16164,9 @@
       <c r="I185" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J185" s="5"/>
+    </row>
+    <row r="186" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>24</v>
       </c>
@@ -15640,8 +16188,9 @@
       <c r="I186" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J186" s="5"/>
+    </row>
+    <row r="187" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>26</v>
       </c>
@@ -15663,11 +16212,13 @@
       <c r="I187" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J187" s="5" t="s">
+      <c r="J187" s="5"/>
+      <c r="K187" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L187" s="5"/>
+    </row>
+    <row r="188" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>27</v>
       </c>
@@ -15689,8 +16240,9 @@
       <c r="I188" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J188" s="5"/>
+    </row>
+    <row r="189" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>24</v>
       </c>
@@ -15712,8 +16264,9 @@
       <c r="I189" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>26</v>
       </c>
@@ -15735,8 +16288,9 @@
       <c r="I190" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>27</v>
       </c>
@@ -15758,8 +16312,9 @@
       <c r="I191" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>24</v>
       </c>
@@ -15781,8 +16336,9 @@
       <c r="I192" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J192" s="5"/>
+    </row>
+    <row r="193" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>26</v>
       </c>
@@ -15804,11 +16360,13 @@
       <c r="I193" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J193" s="5" t="s">
+      <c r="J193" s="5"/>
+      <c r="K193" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L193" s="5"/>
+    </row>
+    <row r="194" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>27</v>
       </c>
@@ -15830,8 +16388,9 @@
       <c r="I194" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J194" s="5"/>
+    </row>
+    <row r="195" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>24</v>
       </c>
@@ -15853,8 +16412,9 @@
       <c r="I195" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J195" s="5"/>
+    </row>
+    <row r="196" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>26</v>
       </c>
@@ -15876,11 +16436,13 @@
       <c r="I196" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J196" s="5" t="s">
+      <c r="J196" s="5"/>
+      <c r="K196" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L196" s="5"/>
+    </row>
+    <row r="197" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>27</v>
       </c>
@@ -15902,8 +16464,9 @@
       <c r="I197" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J197" s="5"/>
+    </row>
+    <row r="198" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>24</v>
       </c>
@@ -15925,8 +16488,9 @@
       <c r="I198" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J198" s="5"/>
+    </row>
+    <row r="199" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>26</v>
       </c>
@@ -15948,8 +16512,9 @@
       <c r="I199" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J199" s="5"/>
+    </row>
+    <row r="200" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>27</v>
       </c>
@@ -15971,8 +16536,9 @@
       <c r="I200" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J200" s="5"/>
+    </row>
+    <row r="201" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>24</v>
       </c>
@@ -15994,8 +16560,9 @@
       <c r="I201" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J201" s="5"/>
+    </row>
+    <row r="202" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>26</v>
       </c>
@@ -16017,11 +16584,13 @@
       <c r="I202" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J202" s="5" t="s">
+      <c r="J202" s="5"/>
+      <c r="K202" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L202" s="5"/>
+    </row>
+    <row r="203" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>27</v>
       </c>
@@ -16043,8 +16612,9 @@
       <c r="I203" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J203" s="5"/>
+    </row>
+    <row r="204" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>24</v>
       </c>
@@ -16066,8 +16636,9 @@
       <c r="I204" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J204" s="5"/>
+    </row>
+    <row r="205" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>26</v>
       </c>
@@ -16089,11 +16660,13 @@
       <c r="I205" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J205" s="5" t="s">
+      <c r="J205" s="5"/>
+      <c r="K205" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L205" s="5"/>
+    </row>
+    <row r="206" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>27</v>
       </c>
@@ -16115,8 +16688,9 @@
       <c r="I206" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J206" s="5"/>
+    </row>
+    <row r="207" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>24</v>
       </c>
@@ -16138,8 +16712,9 @@
       <c r="I207" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J207" s="5"/>
+    </row>
+    <row r="208" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>26</v>
       </c>
@@ -16161,8 +16736,9 @@
       <c r="I208" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J208" s="5"/>
+    </row>
+    <row r="209" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>27</v>
       </c>
@@ -16184,8 +16760,9 @@
       <c r="I209" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J209" s="5"/>
+    </row>
+    <row r="210" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>24</v>
       </c>
@@ -16207,8 +16784,9 @@
       <c r="I210" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J210" s="5"/>
+    </row>
+    <row r="211" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>26</v>
       </c>
@@ -16230,11 +16808,13 @@
       <c r="I211" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J211" s="5" t="s">
+      <c r="J211" s="5"/>
+      <c r="K211" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L211" s="5"/>
+    </row>
+    <row r="212" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>27</v>
       </c>
@@ -16256,8 +16836,9 @@
       <c r="I212" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J212" s="5"/>
+    </row>
+    <row r="213" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>24</v>
       </c>
@@ -16279,8 +16860,9 @@
       <c r="I213" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J213" s="5"/>
+    </row>
+    <row r="214" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>26</v>
       </c>
@@ -16302,11 +16884,13 @@
       <c r="I214" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J214" s="5" t="s">
+      <c r="J214" s="5"/>
+      <c r="K214" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L214" s="5"/>
+    </row>
+    <row r="215" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>27</v>
       </c>
@@ -16328,8 +16912,9 @@
       <c r="I215" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>24</v>
       </c>
@@ -16351,8 +16936,9 @@
       <c r="I216" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>26</v>
       </c>
@@ -16374,8 +16960,9 @@
       <c r="I217" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>27</v>
       </c>
@@ -16397,8 +16984,9 @@
       <c r="I218" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>24</v>
       </c>
@@ -16420,8 +17008,9 @@
       <c r="I219" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>26</v>
       </c>
@@ -16443,11 +17032,13 @@
       <c r="I220" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J220" s="5" t="s">
+      <c r="J220" s="5"/>
+      <c r="K220" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L220" s="5"/>
+    </row>
+    <row r="221" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>27</v>
       </c>
@@ -16469,8 +17060,9 @@
       <c r="I221" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>24</v>
       </c>
@@ -16492,8 +17084,9 @@
       <c r="I222" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>26</v>
       </c>
@@ -16515,11 +17108,13 @@
       <c r="I223" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J223" s="5" t="s">
+      <c r="J223" s="5"/>
+      <c r="K223" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L223" s="5"/>
+    </row>
+    <row r="224" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>27</v>
       </c>
@@ -16541,8 +17136,9 @@
       <c r="I224" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J224" s="5"/>
+    </row>
+    <row r="225" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>24</v>
       </c>
@@ -16564,8 +17160,9 @@
       <c r="I225" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J225" s="5"/>
+    </row>
+    <row r="226" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>26</v>
       </c>
@@ -16587,8 +17184,9 @@
       <c r="I226" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J226" s="5"/>
+    </row>
+    <row r="227" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>27</v>
       </c>
@@ -16610,8 +17208,9 @@
       <c r="I227" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J227" s="5"/>
+    </row>
+    <row r="228" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>24</v>
       </c>
@@ -16633,8 +17232,9 @@
       <c r="I228" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J228" s="5"/>
+    </row>
+    <row r="229" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>26</v>
       </c>
@@ -16656,11 +17256,13 @@
       <c r="I229" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J229" s="5" t="s">
+      <c r="J229" s="5"/>
+      <c r="K229" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L229" s="5"/>
+    </row>
+    <row r="230" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>27</v>
       </c>
@@ -16682,8 +17284,9 @@
       <c r="I230" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J230" s="5"/>
+    </row>
+    <row r="231" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>24</v>
       </c>
@@ -16705,8 +17308,9 @@
       <c r="I231" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J231" s="5"/>
+    </row>
+    <row r="232" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>26</v>
       </c>
@@ -16728,11 +17332,13 @@
       <c r="I232" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J232" s="5" t="s">
+      <c r="J232" s="5"/>
+      <c r="K232" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L232" s="5"/>
+    </row>
+    <row r="233" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>27</v>
       </c>
@@ -16754,8 +17360,9 @@
       <c r="I233" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J233" s="5"/>
+    </row>
+    <row r="234" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>24</v>
       </c>
@@ -16777,8 +17384,9 @@
       <c r="I234" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J234" s="5"/>
+    </row>
+    <row r="235" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>26</v>
       </c>
@@ -16800,11 +17408,13 @@
       <c r="I235" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="J235" s="5" t="s">
+      <c r="J235" s="5"/>
+      <c r="K235" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L235" s="5"/>
+    </row>
+    <row r="236" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>27</v>
       </c>
@@ -16826,17 +17436,18 @@
       <c r="I236" s="5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="J236" s="5"/>
+    </row>
+    <row r="237" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D237" s="7"/>
     </row>
-    <row r="238" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D238" s="7"/>
     </row>
-    <row r="239" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D239" s="7"/>
     </row>
-    <row r="240" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D240" s="7"/>
     </row>
     <row r="241" spans="4:4" ht="13.2" x14ac:dyDescent="0.25">

--- a/data/T30R11_data.xlsx
+++ b/data/T30R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kara Fox\Documents\Kara GLO\RStudio\GLO_sage\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C930424-F46F-42C5-BCA1-0247CD8A2162}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42890298-CC9E-428D-8903-7CFAE7D468D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-5295" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="275">
   <si>
     <t>Survey_type</t>
   </si>
@@ -1355,8 +1355,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315:XFD320"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,9 @@
       <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L2" s="5" t="s">
         <v>207</v>
       </c>
@@ -1493,7 +1495,9 @@
       <c r="I3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>207</v>
       </c>
@@ -1524,7 +1528,9 @@
       <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L4" s="5" t="s">
         <v>207</v>
       </c>
@@ -1551,7 +1557,9 @@
       <c r="I5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L5" s="5" t="s">
         <v>207</v>
       </c>
@@ -1578,7 +1586,9 @@
       <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L6" s="5" t="s">
         <v>207</v>
       </c>
@@ -1605,7 +1615,9 @@
       <c r="I7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L7" s="5" t="s">
         <v>207</v>
       </c>
@@ -1632,7 +1644,9 @@
       <c r="I8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L8" s="5" t="s">
         <v>207</v>
       </c>
@@ -1659,7 +1673,9 @@
       <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L9" s="5" t="s">
         <v>207</v>
       </c>
@@ -1686,7 +1702,9 @@
       <c r="I10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L10" s="5" t="s">
         <v>207</v>
       </c>
@@ -1713,7 +1731,9 @@
       <c r="I11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L11" s="5" t="s">
         <v>207</v>
       </c>
@@ -1740,7 +1760,9 @@
       <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>207</v>
       </c>
@@ -1767,7 +1789,9 @@
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L13" s="5" t="s">
         <v>207</v>
       </c>
@@ -1794,7 +1818,9 @@
       <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L14" s="5" t="s">
         <v>207</v>
       </c>
@@ -1821,7 +1847,9 @@
       <c r="I15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L15" s="5" t="s">
         <v>207</v>
       </c>
@@ -1848,7 +1876,9 @@
       <c r="I16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L16" s="5" t="s">
         <v>207</v>
       </c>
@@ -1875,7 +1905,9 @@
       <c r="I17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L17" s="5" t="s">
         <v>207</v>
       </c>
@@ -1902,7 +1934,9 @@
       <c r="I18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L18" s="5" t="s">
         <v>207</v>
       </c>
@@ -1929,7 +1963,9 @@
       <c r="I19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L19" s="5" t="s">
         <v>207</v>
       </c>
@@ -1956,7 +1992,9 @@
       <c r="I20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L20" s="5" t="s">
         <v>207</v>
       </c>
@@ -1987,7 +2025,9 @@
       <c r="I21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L21" s="5" t="s">
         <v>207</v>
       </c>
@@ -2014,7 +2054,9 @@
       <c r="I22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L22" s="5" t="s">
         <v>207</v>
       </c>
@@ -2041,7 +2083,9 @@
       <c r="I23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L23" s="5" t="s">
         <v>207</v>
       </c>
@@ -2068,7 +2112,9 @@
       <c r="I24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L24" s="5" t="s">
         <v>207</v>
       </c>
@@ -2099,7 +2145,9 @@
       <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L25" s="5" t="s">
         <v>207</v>
       </c>
@@ -2126,7 +2174,9 @@
       <c r="I26" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L26" s="5" t="s">
         <v>207</v>
       </c>
@@ -2153,7 +2203,9 @@
       <c r="I27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L27" s="5" t="s">
         <v>207</v>
       </c>
@@ -2180,7 +2232,9 @@
       <c r="I28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L28" s="5" t="s">
         <v>207</v>
       </c>
@@ -2207,7 +2261,9 @@
       <c r="I29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L29" s="5" t="s">
         <v>207</v>
       </c>
@@ -2234,7 +2290,9 @@
       <c r="I30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L30" s="5" t="s">
         <v>207</v>
       </c>
@@ -2261,7 +2319,9 @@
       <c r="I31" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L31" s="5" t="s">
         <v>207</v>
       </c>
@@ -2288,7 +2348,9 @@
       <c r="I32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L32" s="5" t="s">
         <v>207</v>
       </c>
@@ -2315,7 +2377,9 @@
       <c r="I33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L33" s="5" t="s">
         <v>207</v>
       </c>
@@ -2342,7 +2406,9 @@
       <c r="I34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L34" s="5" t="s">
         <v>207</v>
       </c>
@@ -2369,7 +2435,9 @@
       <c r="I35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L35" s="5" t="s">
         <v>207</v>
       </c>
@@ -2396,7 +2464,9 @@
       <c r="I36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L36" s="5" t="s">
         <v>207</v>
       </c>
@@ -2423,7 +2493,9 @@
       <c r="I37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L37" s="5" t="s">
         <v>207</v>
       </c>
@@ -2450,7 +2522,9 @@
       <c r="I38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L38" s="5" t="s">
         <v>207</v>
       </c>
@@ -2477,7 +2551,9 @@
       <c r="I39" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L39" s="5" t="s">
         <v>207</v>
       </c>
@@ -2504,7 +2580,9 @@
       <c r="I40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L40" s="5" t="s">
         <v>207</v>
       </c>
@@ -2535,7 +2613,9 @@
       <c r="I41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L41" s="5" t="s">
         <v>207</v>
       </c>
@@ -2562,7 +2642,9 @@
       <c r="I42" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L42" s="5" t="s">
         <v>207</v>
       </c>
@@ -2589,7 +2671,9 @@
       <c r="I43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L43" s="5" t="s">
         <v>207</v>
       </c>
@@ -2616,7 +2700,9 @@
       <c r="I44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L44" s="5" t="s">
         <v>207</v>
       </c>
@@ -2643,7 +2729,9 @@
       <c r="I45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L45" s="5" t="s">
         <v>207</v>
       </c>
@@ -2670,7 +2758,9 @@
       <c r="I46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L46" s="5" t="s">
         <v>207</v>
       </c>
@@ -2697,7 +2787,9 @@
       <c r="I47" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L47" s="5" t="s">
         <v>207</v>
       </c>
@@ -2724,7 +2816,9 @@
       <c r="I48" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L48" s="5" t="s">
         <v>207</v>
       </c>
@@ -2755,7 +2849,9 @@
       <c r="I49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L49" s="5" t="s">
         <v>207</v>
       </c>
@@ -2782,7 +2878,9 @@
       <c r="I50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L50" s="5" t="s">
         <v>207</v>
       </c>
@@ -2809,7 +2907,9 @@
       <c r="I51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L51" s="5" t="s">
         <v>207</v>
       </c>
@@ -2836,7 +2936,9 @@
       <c r="I52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L52" s="5" t="s">
         <v>207</v>
       </c>
@@ -2863,7 +2965,9 @@
       <c r="I53" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L53" s="5" t="s">
         <v>207</v>
       </c>
@@ -2890,7 +2994,9 @@
       <c r="I54" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L54" s="5" t="s">
         <v>207</v>
       </c>
@@ -2917,7 +3023,9 @@
       <c r="I55" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L55" s="5" t="s">
         <v>207</v>
       </c>
@@ -2944,7 +3052,9 @@
       <c r="I56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L56" s="5" t="s">
         <v>207</v>
       </c>
@@ -2971,7 +3081,9 @@
       <c r="I57" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L57" s="5" t="s">
         <v>207</v>
       </c>
@@ -2998,7 +3110,9 @@
       <c r="I58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L58" s="5" t="s">
         <v>207</v>
       </c>
@@ -3025,7 +3139,9 @@
       <c r="I59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L59" s="5" t="s">
         <v>207</v>
       </c>
@@ -3052,7 +3168,9 @@
       <c r="I60" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L60" s="5" t="s">
         <v>207</v>
       </c>
@@ -3079,7 +3197,9 @@
       <c r="I61" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L61" s="5" t="s">
         <v>207</v>
       </c>
@@ -3106,7 +3226,9 @@
       <c r="I62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L62" s="5" t="s">
         <v>207</v>
       </c>
@@ -3133,7 +3255,9 @@
       <c r="I63" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L63" s="5" t="s">
         <v>207</v>
       </c>
@@ -3160,7 +3284,9 @@
       <c r="I64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L64" s="5" t="s">
         <v>207</v>
       </c>
@@ -3187,7 +3313,9 @@
       <c r="I65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L65" s="5" t="s">
         <v>207</v>
       </c>
@@ -3214,7 +3342,9 @@
       <c r="I66" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L66" s="5" t="s">
         <v>207</v>
       </c>
@@ -3241,7 +3371,9 @@
       <c r="I67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L67" s="5" t="s">
         <v>207</v>
       </c>
@@ -3268,7 +3400,9 @@
       <c r="I68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L68" s="5" t="s">
         <v>207</v>
       </c>
@@ -3295,7 +3429,9 @@
       <c r="I69" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L69" s="5" t="s">
         <v>207</v>
       </c>
@@ -3322,7 +3458,9 @@
       <c r="I70" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L70" s="5" t="s">
         <v>207</v>
       </c>
@@ -3349,7 +3487,9 @@
       <c r="I71" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L71" s="5" t="s">
         <v>207</v>
       </c>
@@ -3376,7 +3516,9 @@
       <c r="I72" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L72" s="5" t="s">
         <v>207</v>
       </c>
@@ -3407,7 +3549,9 @@
       <c r="I73" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L73" s="5" t="s">
         <v>207</v>
       </c>
@@ -3434,7 +3578,9 @@
       <c r="I74" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L74" s="5" t="s">
         <v>207</v>
       </c>
@@ -3461,7 +3607,9 @@
       <c r="I75" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L75" s="5" t="s">
         <v>207</v>
       </c>
@@ -3488,7 +3636,9 @@
       <c r="I76" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L76" s="5" t="s">
         <v>207</v>
       </c>
@@ -3515,7 +3665,9 @@
       <c r="I77" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L77" s="5" t="s">
         <v>207</v>
       </c>
@@ -3542,7 +3694,9 @@
       <c r="I78" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L78" s="5" t="s">
         <v>207</v>
       </c>
@@ -3569,7 +3723,9 @@
       <c r="I79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L79" s="5" t="s">
         <v>207</v>
       </c>
@@ -3596,7 +3752,9 @@
       <c r="I80" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L80" s="5" t="s">
         <v>207</v>
       </c>
@@ -3627,7 +3785,9 @@
       <c r="I81" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L81" s="5" t="s">
         <v>207</v>
       </c>
@@ -3654,7 +3814,9 @@
       <c r="I82" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L82" s="5" t="s">
         <v>207</v>
       </c>
@@ -3681,7 +3843,9 @@
       <c r="I83" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L83" s="5" t="s">
         <v>207</v>
       </c>
@@ -3708,7 +3872,9 @@
       <c r="I84" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L84" s="5" t="s">
         <v>207</v>
       </c>
@@ -3735,7 +3901,9 @@
       <c r="I85" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L85" s="5" t="s">
         <v>207</v>
       </c>
@@ -3762,7 +3930,9 @@
       <c r="I86" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L86" s="5" t="s">
         <v>207</v>
       </c>
@@ -3789,7 +3959,9 @@
       <c r="I87" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L87" s="5" t="s">
         <v>207</v>
       </c>
@@ -3816,7 +3988,9 @@
       <c r="I88" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L88" s="5" t="s">
         <v>207</v>
       </c>
@@ -3847,7 +4021,9 @@
       <c r="I89" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L89" s="5" t="s">
         <v>207</v>
       </c>
@@ -3874,7 +4050,9 @@
       <c r="I90" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L90" s="5" t="s">
         <v>207</v>
       </c>
@@ -3901,7 +4079,9 @@
       <c r="I91" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J91" s="5"/>
+      <c r="J91" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L91" s="5" t="s">
         <v>207</v>
       </c>
@@ -3928,7 +4108,9 @@
       <c r="I92" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J92" s="5"/>
+      <c r="J92" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L92" s="5" t="s">
         <v>207</v>
       </c>
@@ -3955,7 +4137,9 @@
       <c r="I93" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L93" s="5" t="s">
         <v>207</v>
       </c>
@@ -3982,7 +4166,9 @@
       <c r="I94" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J94" s="5"/>
+      <c r="J94" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L94" s="5" t="s">
         <v>207</v>
       </c>
@@ -4009,7 +4195,9 @@
       <c r="I95" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J95" s="5"/>
+      <c r="J95" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L95" s="5" t="s">
         <v>207</v>
       </c>
@@ -4036,7 +4224,9 @@
       <c r="I96" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J96" s="5"/>
+      <c r="J96" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L96" s="5" t="s">
         <v>207</v>
       </c>
@@ -4063,7 +4253,9 @@
       <c r="I97" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J97" s="5"/>
+      <c r="J97" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L97" s="5" t="s">
         <v>207</v>
       </c>
@@ -4090,7 +4282,9 @@
       <c r="I98" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J98" s="5"/>
+      <c r="J98" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L98" s="5" t="s">
         <v>207</v>
       </c>
@@ -4117,7 +4311,9 @@
       <c r="I99" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J99" s="5"/>
+      <c r="J99" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L99" s="5" t="s">
         <v>207</v>
       </c>
@@ -4144,7 +4340,9 @@
       <c r="I100" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L100" s="5" t="s">
         <v>207</v>
       </c>
@@ -4171,7 +4369,9 @@
       <c r="I101" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L101" s="5" t="s">
         <v>207</v>
       </c>
@@ -4198,7 +4398,9 @@
       <c r="I102" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L102" s="5" t="s">
         <v>207</v>
       </c>
@@ -4229,7 +4431,9 @@
       <c r="I103" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="5"/>
+      <c r="J103" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L103" s="5" t="s">
         <v>207</v>
       </c>
@@ -4256,7 +4460,9 @@
       <c r="I104" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J104" s="5"/>
+      <c r="J104" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L104" s="5" t="s">
         <v>207</v>
       </c>
@@ -4283,7 +4489,9 @@
       <c r="I105" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J105" s="5"/>
+      <c r="J105" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L105" s="5" t="s">
         <v>207</v>
       </c>
@@ -4310,7 +4518,9 @@
       <c r="I106" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J106" s="5"/>
+      <c r="J106" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L106" s="5" t="s">
         <v>207</v>
       </c>
@@ -4337,7 +4547,9 @@
       <c r="I107" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J107" s="5"/>
+      <c r="J107" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L107" s="5" t="s">
         <v>207</v>
       </c>
@@ -4364,7 +4576,9 @@
       <c r="I108" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J108" s="5"/>
+      <c r="J108" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L108" s="5" t="s">
         <v>207</v>
       </c>
@@ -4391,7 +4605,9 @@
       <c r="I109" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J109" s="5"/>
+      <c r="J109" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L109" s="5" t="s">
         <v>207</v>
       </c>
@@ -4418,7 +4634,9 @@
       <c r="I110" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J110" s="5"/>
+      <c r="J110" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L110" s="5" t="s">
         <v>207</v>
       </c>
@@ -4445,7 +4663,9 @@
       <c r="I111" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J111" s="5"/>
+      <c r="J111" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L111" s="5" t="s">
         <v>207</v>
       </c>
@@ -4472,7 +4692,9 @@
       <c r="I112" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J112" s="5"/>
+      <c r="J112" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L112" s="5" t="s">
         <v>207</v>
       </c>
@@ -4499,7 +4721,9 @@
       <c r="I113" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J113" s="5"/>
+      <c r="J113" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L113" s="5" t="s">
         <v>207</v>
       </c>
@@ -4526,7 +4750,9 @@
       <c r="I114" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J114" s="5"/>
+      <c r="J114" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L114" s="5" t="s">
         <v>207</v>
       </c>
@@ -4553,7 +4779,9 @@
       <c r="I115" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J115" s="5"/>
+      <c r="J115" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L115" s="5" t="s">
         <v>207</v>
       </c>
@@ -4580,7 +4808,9 @@
       <c r="I116" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J116" s="5"/>
+      <c r="J116" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L116" s="5" t="s">
         <v>207</v>
       </c>
@@ -4607,7 +4837,9 @@
       <c r="I117" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J117" s="5"/>
+      <c r="J117" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L117" s="5" t="s">
         <v>207</v>
       </c>
@@ -4634,7 +4866,9 @@
       <c r="I118" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J118" s="5"/>
+      <c r="J118" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L118" s="5" t="s">
         <v>207</v>
       </c>
@@ -4661,7 +4895,9 @@
       <c r="I119" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J119" s="5"/>
+      <c r="J119" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L119" s="5" t="s">
         <v>207</v>
       </c>
@@ -4688,7 +4924,9 @@
       <c r="I120" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J120" s="5"/>
+      <c r="J120" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L120" s="5" t="s">
         <v>207</v>
       </c>
@@ -4715,7 +4953,9 @@
       <c r="I121" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J121" s="5"/>
+      <c r="J121" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L121" s="5" t="s">
         <v>207</v>
       </c>
@@ -4742,7 +4982,9 @@
       <c r="I122" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J122" s="5"/>
+      <c r="J122" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L122" s="5" t="s">
         <v>207</v>
       </c>
@@ -4769,7 +5011,9 @@
       <c r="I123" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L123" s="5" t="s">
         <v>207</v>
       </c>
@@ -4796,7 +5040,9 @@
       <c r="I124" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J124" s="5"/>
+      <c r="J124" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L124" s="5" t="s">
         <v>207</v>
       </c>
@@ -4823,7 +5069,9 @@
       <c r="I125" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="J125" s="5"/>
+      <c r="J125" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L125" s="5" t="s">
         <v>207</v>
       </c>
@@ -4850,7 +5098,9 @@
       <c r="I126" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J126" s="5"/>
+      <c r="J126" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L126" s="5" t="s">
         <v>207</v>
       </c>
@@ -4877,7 +5127,9 @@
       <c r="I127" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J127" s="5"/>
+      <c r="J127" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L127" s="5" t="s">
         <v>207</v>
       </c>
@@ -4904,7 +5156,9 @@
       <c r="I128" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J128" s="5"/>
+      <c r="J128" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L128" s="5" t="s">
         <v>207</v>
       </c>
@@ -4931,7 +5185,9 @@
       <c r="I129" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L129" s="5" t="s">
         <v>207</v>
       </c>
@@ -4962,7 +5218,9 @@
       <c r="I130" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J130" s="5"/>
+      <c r="J130" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L130" s="5" t="s">
         <v>207</v>
       </c>
@@ -4989,7 +5247,9 @@
       <c r="I131" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L131" s="5" t="s">
         <v>207</v>
       </c>
@@ -5016,7 +5276,9 @@
       <c r="I132" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J132" s="5"/>
+      <c r="J132" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L132" s="5" t="s">
         <v>207</v>
       </c>
@@ -5043,7 +5305,9 @@
       <c r="I133" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J133" s="5"/>
+      <c r="J133" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L133" s="5" t="s">
         <v>207</v>
       </c>
@@ -5074,7 +5338,9 @@
       <c r="I134" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J134" s="5"/>
+      <c r="J134" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L134" s="5" t="s">
         <v>207</v>
       </c>
@@ -5101,7 +5367,9 @@
       <c r="I135" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J135" s="5"/>
+      <c r="J135" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L135" s="5" t="s">
         <v>207</v>
       </c>
@@ -5128,7 +5396,9 @@
       <c r="I136" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J136" s="5"/>
+      <c r="J136" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L136" s="5" t="s">
         <v>207</v>
       </c>
@@ -5155,7 +5425,9 @@
       <c r="I137" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J137" s="5"/>
+      <c r="J137" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L137" s="5" t="s">
         <v>207</v>
       </c>
@@ -5182,7 +5454,9 @@
       <c r="I138" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J138" s="5"/>
+      <c r="J138" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L138" s="5" t="s">
         <v>207</v>
       </c>
@@ -5209,7 +5483,9 @@
       <c r="I139" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J139" s="5"/>
+      <c r="J139" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L139" s="5" t="s">
         <v>207</v>
       </c>
@@ -5236,7 +5512,9 @@
       <c r="I140" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J140" s="5"/>
+      <c r="J140" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L140" s="5" t="s">
         <v>207</v>
       </c>
@@ -5263,7 +5541,9 @@
       <c r="I141" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J141" s="5"/>
+      <c r="J141" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L141" s="5" t="s">
         <v>207</v>
       </c>
@@ -5290,7 +5570,9 @@
       <c r="I142" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J142" s="5"/>
+      <c r="J142" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L142" s="5" t="s">
         <v>207</v>
       </c>
@@ -5317,7 +5599,9 @@
       <c r="I143" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J143" s="5"/>
+      <c r="J143" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L143" s="5" t="s">
         <v>207</v>
       </c>
@@ -5344,7 +5628,9 @@
       <c r="I144" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J144" s="5"/>
+      <c r="J144" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L144" s="5" t="s">
         <v>207</v>
       </c>
@@ -5371,7 +5657,9 @@
       <c r="I145" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J145" s="5"/>
+      <c r="J145" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L145" s="5" t="s">
         <v>207</v>
       </c>
@@ -5398,7 +5686,9 @@
       <c r="I146" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="J146" s="5"/>
+      <c r="J146" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L146" s="5" t="s">
         <v>207</v>
       </c>
@@ -5425,7 +5715,9 @@
       <c r="I147" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J147" s="5"/>
+      <c r="J147" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L147" s="5" t="s">
         <v>207</v>
       </c>
@@ -5452,7 +5744,9 @@
       <c r="I148" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J148" s="5"/>
+      <c r="J148" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L148" s="5" t="s">
         <v>207</v>
       </c>
@@ -5479,7 +5773,9 @@
       <c r="I149" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J149" s="5"/>
+      <c r="J149" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L149" s="5" t="s">
         <v>207</v>
       </c>
@@ -5506,7 +5802,9 @@
       <c r="I150" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J150" s="5"/>
+      <c r="J150" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L150" s="5" t="s">
         <v>207</v>
       </c>
@@ -5533,7 +5831,9 @@
       <c r="I151" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J151" s="5"/>
+      <c r="J151" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L151" s="5" t="s">
         <v>207</v>
       </c>
@@ -5560,7 +5860,9 @@
       <c r="I152" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J152" s="5"/>
+      <c r="J152" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L152" s="5" t="s">
         <v>207</v>
       </c>
@@ -5587,7 +5889,9 @@
       <c r="I153" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J153" s="5"/>
+      <c r="J153" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L153" s="5" t="s">
         <v>207</v>
       </c>
@@ -5614,7 +5918,9 @@
       <c r="I154" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="J154" s="5"/>
+      <c r="J154" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L154" s="5" t="s">
         <v>207</v>
       </c>
@@ -5641,7 +5947,9 @@
       <c r="I155" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J155" s="5"/>
+      <c r="J155" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L155" s="5" t="s">
         <v>207</v>
       </c>
@@ -5672,7 +5980,9 @@
       <c r="I156" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J156" s="5"/>
+      <c r="J156" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L156" s="5" t="s">
         <v>207</v>
       </c>
@@ -5699,7 +6009,9 @@
       <c r="I157" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J157" s="5"/>
+      <c r="J157" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L157" s="5" t="s">
         <v>207</v>
       </c>
@@ -5726,7 +6038,9 @@
       <c r="I158" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J158" s="5"/>
+      <c r="J158" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L158" s="5" t="s">
         <v>207</v>
       </c>
@@ -5753,7 +6067,9 @@
       <c r="I159" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J159" s="5"/>
+      <c r="J159" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L159" s="5" t="s">
         <v>207</v>
       </c>
@@ -5784,7 +6100,9 @@
       <c r="I160" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J160" s="5"/>
+      <c r="J160" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L160" s="5" t="s">
         <v>207</v>
       </c>
@@ -5811,7 +6129,9 @@
       <c r="I161" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J161" s="5"/>
+      <c r="J161" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L161" s="5" t="s">
         <v>207</v>
       </c>
@@ -5838,7 +6158,9 @@
       <c r="I162" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J162" s="5"/>
+      <c r="J162" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L162" s="5" t="s">
         <v>207</v>
       </c>
@@ -5865,7 +6187,9 @@
       <c r="I163" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J163" s="5"/>
+      <c r="J163" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L163" s="5" t="s">
         <v>207</v>
       </c>
@@ -5892,7 +6216,9 @@
       <c r="I164" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J164" s="5"/>
+      <c r="J164" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L164" s="5" t="s">
         <v>207</v>
       </c>
@@ -5919,7 +6245,9 @@
       <c r="I165" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J165" s="5"/>
+      <c r="J165" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L165" s="5" t="s">
         <v>207</v>
       </c>
@@ -5946,7 +6274,9 @@
       <c r="I166" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J166" s="5"/>
+      <c r="J166" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L166" s="5" t="s">
         <v>207</v>
       </c>
@@ -5973,7 +6303,9 @@
       <c r="I167" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J167" s="5"/>
+      <c r="J167" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L167" s="5" t="s">
         <v>207</v>
       </c>
@@ -6000,7 +6332,9 @@
       <c r="I168" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J168" s="5"/>
+      <c r="J168" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L168" s="5" t="s">
         <v>207</v>
       </c>
@@ -6027,7 +6361,9 @@
       <c r="I169" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="J169" s="5"/>
+      <c r="J169" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L169" s="5" t="s">
         <v>207</v>
       </c>
@@ -6054,7 +6390,9 @@
       <c r="I170" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J170" s="5"/>
+      <c r="J170" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L170" s="5" t="s">
         <v>207</v>
       </c>
@@ -6081,7 +6419,9 @@
       <c r="I171" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J171" s="5"/>
+      <c r="J171" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L171" s="5" t="s">
         <v>207</v>
       </c>
@@ -6108,7 +6448,9 @@
       <c r="I172" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J172" s="5"/>
+      <c r="J172" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L172" s="5" t="s">
         <v>207</v>
       </c>
@@ -6135,7 +6477,9 @@
       <c r="I173" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J173" s="5"/>
+      <c r="J173" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L173" s="5" t="s">
         <v>207</v>
       </c>
@@ -6162,7 +6506,9 @@
       <c r="I174" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J174" s="5"/>
+      <c r="J174" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L174" s="5" t="s">
         <v>207</v>
       </c>
@@ -6189,7 +6535,9 @@
       <c r="I175" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J175" s="5"/>
+      <c r="J175" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L175" s="5" t="s">
         <v>207</v>
       </c>
@@ -6216,7 +6564,9 @@
       <c r="I176" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J176" s="5"/>
+      <c r="J176" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L176" s="5" t="s">
         <v>207</v>
       </c>
@@ -6243,7 +6593,9 @@
       <c r="I177" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J177" s="5"/>
+      <c r="J177" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L177" s="5" t="s">
         <v>207</v>
       </c>
@@ -6270,7 +6622,9 @@
       <c r="I178" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J178" s="5"/>
+      <c r="J178" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L178" s="5" t="s">
         <v>207</v>
       </c>
@@ -6297,7 +6651,9 @@
       <c r="I179" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J179" s="5"/>
+      <c r="J179" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L179" s="5" t="s">
         <v>207</v>
       </c>
@@ -6324,7 +6680,9 @@
       <c r="I180" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J180" s="5"/>
+      <c r="J180" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L180" s="5" t="s">
         <v>207</v>
       </c>
@@ -6351,7 +6709,9 @@
       <c r="I181" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J181" s="5"/>
+      <c r="J181" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L181" s="5" t="s">
         <v>207</v>
       </c>
@@ -6378,7 +6738,9 @@
       <c r="I182" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J182" s="5"/>
+      <c r="J182" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L182" s="5" t="s">
         <v>207</v>
       </c>
@@ -6405,7 +6767,9 @@
       <c r="I183" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J183" s="5"/>
+      <c r="J183" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L183" s="5" t="s">
         <v>207</v>
       </c>
@@ -6432,7 +6796,9 @@
       <c r="I184" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J184" s="5"/>
+      <c r="J184" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L184" s="5" t="s">
         <v>207</v>
       </c>
@@ -6459,7 +6825,9 @@
       <c r="I185" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J185" s="5"/>
+      <c r="J185" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L185" s="5" t="s">
         <v>207</v>
       </c>
@@ -6486,7 +6854,9 @@
       <c r="I186" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="J186" s="5"/>
+      <c r="J186" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L186" s="5" t="s">
         <v>207</v>
       </c>
@@ -6513,7 +6883,9 @@
       <c r="I187" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J187" s="5"/>
+      <c r="J187" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L187" s="5" t="s">
         <v>207</v>
       </c>
@@ -6540,7 +6912,9 @@
       <c r="I188" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J188" s="5"/>
+      <c r="J188" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L188" s="5" t="s">
         <v>207</v>
       </c>
@@ -6567,7 +6941,9 @@
       <c r="I189" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J189" s="5"/>
+      <c r="J189" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L189" s="5" t="s">
         <v>207</v>
       </c>
@@ -6594,7 +6970,9 @@
       <c r="I190" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J190" s="5"/>
+      <c r="J190" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L190" s="5" t="s">
         <v>207</v>
       </c>
@@ -6621,7 +6999,9 @@
       <c r="I191" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J191" s="5"/>
+      <c r="J191" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L191" s="5" t="s">
         <v>207</v>
       </c>
@@ -6648,7 +7028,9 @@
       <c r="I192" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J192" s="5"/>
+      <c r="J192" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L192" s="5" t="s">
         <v>207</v>
       </c>
@@ -6679,7 +7061,9 @@
       <c r="I193" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J193" s="5"/>
+      <c r="J193" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L193" s="5" t="s">
         <v>207</v>
       </c>
@@ -6706,7 +7090,9 @@
       <c r="I194" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J194" s="5"/>
+      <c r="J194" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L194" s="5" t="s">
         <v>207</v>
       </c>
@@ -6733,7 +7119,9 @@
       <c r="I195" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J195" s="5"/>
+      <c r="J195" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L195" s="5" t="s">
         <v>207</v>
       </c>
@@ -6760,7 +7148,9 @@
       <c r="I196" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J196" s="5"/>
+      <c r="J196" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L196" s="5" t="s">
         <v>207</v>
       </c>
@@ -6787,7 +7177,9 @@
       <c r="I197" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J197" s="5"/>
+      <c r="J197" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L197" s="5" t="s">
         <v>207</v>
       </c>
@@ -6814,7 +7206,9 @@
       <c r="I198" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J198" s="5"/>
+      <c r="J198" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L198" s="5" t="s">
         <v>207</v>
       </c>
@@ -6841,7 +7235,9 @@
       <c r="I199" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J199" s="5"/>
+      <c r="J199" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L199" s="5" t="s">
         <v>207</v>
       </c>
@@ -6868,7 +7264,9 @@
       <c r="I200" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J200" s="5"/>
+      <c r="J200" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L200" s="5" t="s">
         <v>207</v>
       </c>
@@ -6895,7 +7293,9 @@
       <c r="I201" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J201" s="5"/>
+      <c r="J201" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L201" s="5" t="s">
         <v>207</v>
       </c>
@@ -6922,7 +7322,9 @@
       <c r="I202" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J202" s="5"/>
+      <c r="J202" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L202" s="5" t="s">
         <v>207</v>
       </c>
@@ -6949,7 +7351,9 @@
       <c r="I203" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J203" s="5"/>
+      <c r="J203" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L203" s="5" t="s">
         <v>207</v>
       </c>
@@ -6976,7 +7380,9 @@
       <c r="I204" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J204" s="5"/>
+      <c r="J204" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L204" s="5" t="s">
         <v>207</v>
       </c>
@@ -7007,7 +7413,9 @@
       <c r="I205" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J205" s="5"/>
+      <c r="J205" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L205" s="5" t="s">
         <v>207</v>
       </c>
@@ -7034,7 +7442,9 @@
       <c r="I206" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J206" s="5"/>
+      <c r="J206" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L206" s="5" t="s">
         <v>207</v>
       </c>
@@ -7061,7 +7471,9 @@
       <c r="I207" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J207" s="5"/>
+      <c r="J207" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L207" s="5" t="s">
         <v>207</v>
       </c>
@@ -7088,7 +7500,9 @@
       <c r="I208" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J208" s="5"/>
+      <c r="J208" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L208" s="5" t="s">
         <v>207</v>
       </c>
@@ -7115,7 +7529,9 @@
       <c r="I209" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J209" s="5"/>
+      <c r="J209" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L209" s="5" t="s">
         <v>207</v>
       </c>
@@ -7142,7 +7558,9 @@
       <c r="I210" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J210" s="5"/>
+      <c r="J210" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L210" s="5" t="s">
         <v>207</v>
       </c>
@@ -7169,7 +7587,9 @@
       <c r="I211" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J211" s="5"/>
+      <c r="J211" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L211" s="5" t="s">
         <v>207</v>
       </c>
@@ -7196,7 +7616,9 @@
       <c r="I212" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J212" s="5"/>
+      <c r="J212" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L212" s="5" t="s">
         <v>207</v>
       </c>
@@ -7223,7 +7645,9 @@
       <c r="I213" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J213" s="5"/>
+      <c r="J213" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L213" s="5" t="s">
         <v>207</v>
       </c>
@@ -7250,7 +7674,9 @@
       <c r="I214" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J214" s="5"/>
+      <c r="J214" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L214" s="5" t="s">
         <v>207</v>
       </c>
@@ -7277,7 +7703,9 @@
       <c r="I215" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J215" s="5"/>
+      <c r="J215" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L215" s="5" t="s">
         <v>207</v>
       </c>
@@ -7304,7 +7732,9 @@
       <c r="I216" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J216" s="5"/>
+      <c r="J216" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L216" s="5" t="s">
         <v>207</v>
       </c>
@@ -7335,7 +7765,9 @@
       <c r="I217" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J217" s="5"/>
+      <c r="J217" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L217" s="5" t="s">
         <v>207</v>
       </c>
@@ -7362,7 +7794,9 @@
       <c r="I218" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J218" s="5"/>
+      <c r="J218" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L218" s="5" t="s">
         <v>207</v>
       </c>
@@ -7389,7 +7823,9 @@
       <c r="I219" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J219" s="5"/>
+      <c r="J219" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L219" s="5" t="s">
         <v>207</v>
       </c>
@@ -7416,7 +7852,9 @@
       <c r="I220" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J220" s="5"/>
+      <c r="J220" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L220" s="5" t="s">
         <v>207</v>
       </c>
@@ -7443,7 +7881,9 @@
       <c r="I221" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J221" s="5"/>
+      <c r="J221" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L221" s="5" t="s">
         <v>207</v>
       </c>
@@ -7470,7 +7910,9 @@
       <c r="I222" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J222" s="5"/>
+      <c r="J222" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L222" s="5" t="s">
         <v>207</v>
       </c>
@@ -7497,7 +7939,9 @@
       <c r="I223" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J223" s="5"/>
+      <c r="J223" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L223" s="5" t="s">
         <v>207</v>
       </c>
@@ -7524,7 +7968,9 @@
       <c r="I224" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J224" s="5"/>
+      <c r="J224" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L224" s="5" t="s">
         <v>207</v>
       </c>
@@ -7551,7 +7997,9 @@
       <c r="I225" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J225" s="5"/>
+      <c r="J225" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L225" s="5" t="s">
         <v>207</v>
       </c>
@@ -7582,7 +8030,9 @@
       <c r="I226" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J226" s="5"/>
+      <c r="J226" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L226" s="5" t="s">
         <v>207</v>
       </c>
@@ -7609,7 +8059,9 @@
       <c r="I227" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J227" s="5"/>
+      <c r="J227" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L227" s="5" t="s">
         <v>207</v>
       </c>
@@ -7636,7 +8088,9 @@
       <c r="I228" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J228" s="5"/>
+      <c r="J228" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L228" s="5" t="s">
         <v>207</v>
       </c>
@@ -7663,7 +8117,9 @@
       <c r="I229" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="J229" s="5"/>
+      <c r="J229" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L229" s="5" t="s">
         <v>207</v>
       </c>
@@ -7690,7 +8146,9 @@
       <c r="I230" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J230" s="5"/>
+      <c r="J230" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L230" s="5" t="s">
         <v>207</v>
       </c>
@@ -7717,7 +8175,9 @@
       <c r="I231" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J231" s="5"/>
+      <c r="J231" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L231" s="5" t="s">
         <v>207</v>
       </c>
@@ -7744,7 +8204,9 @@
       <c r="I232" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J232" s="5"/>
+      <c r="J232" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L232" s="5" t="s">
         <v>207</v>
       </c>
@@ -7771,7 +8233,9 @@
       <c r="I233" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J233" s="5"/>
+      <c r="J233" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L233" s="5" t="s">
         <v>207</v>
       </c>
@@ -7798,7 +8262,9 @@
       <c r="I234" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J234" s="5"/>
+      <c r="J234" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L234" s="5" t="s">
         <v>207</v>
       </c>
@@ -7825,7 +8291,9 @@
       <c r="I235" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J235" s="5"/>
+      <c r="J235" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L235" s="5" t="s">
         <v>207</v>
       </c>
@@ -7852,7 +8320,9 @@
       <c r="I236" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J236" s="5"/>
+      <c r="J236" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L236" s="5" t="s">
         <v>207</v>
       </c>
@@ -7879,7 +8349,9 @@
       <c r="I237" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J237" s="5"/>
+      <c r="J237" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L237" s="5" t="s">
         <v>207</v>
       </c>
@@ -7909,7 +8381,9 @@
       <c r="I238" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="J238" s="5"/>
+      <c r="J238" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L238" s="5" t="s">
         <v>207</v>
       </c>
@@ -7936,7 +8410,9 @@
       <c r="I239" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J239" s="5"/>
+      <c r="J239" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L239" s="5" t="s">
         <v>207</v>
       </c>
@@ -7963,7 +8439,9 @@
       <c r="I240" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J240" s="5"/>
+      <c r="J240" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L240" s="5" t="s">
         <v>207</v>
       </c>
@@ -7990,7 +8468,9 @@
       <c r="I241" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J241" s="5"/>
+      <c r="J241" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L241" s="5" t="s">
         <v>207</v>
       </c>
@@ -8017,7 +8497,9 @@
       <c r="I242" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J242" s="5"/>
+      <c r="J242" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L242" s="5" t="s">
         <v>207</v>
       </c>
@@ -8047,7 +8529,9 @@
       <c r="I243" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J243" s="5"/>
+      <c r="J243" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L243" s="5" t="s">
         <v>207</v>
       </c>
@@ -8074,7 +8558,9 @@
       <c r="I244" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J244" s="5"/>
+      <c r="J244" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L244" s="5" t="s">
         <v>207</v>
       </c>
@@ -8101,7 +8587,9 @@
       <c r="I245" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J245" s="5"/>
+      <c r="J245" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L245" s="5" t="s">
         <v>207</v>
       </c>
@@ -8128,7 +8616,9 @@
       <c r="I246" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J246" s="5"/>
+      <c r="J246" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L246" s="5" t="s">
         <v>207</v>
       </c>
@@ -8159,7 +8649,9 @@
       <c r="I247" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J247" s="5"/>
+      <c r="J247" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L247" s="5" t="s">
         <v>207</v>
       </c>
@@ -8187,7 +8679,9 @@
       <c r="I248" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J248" s="5"/>
+      <c r="J248" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L248" s="5" t="s">
         <v>207</v>
       </c>
@@ -8217,7 +8711,9 @@
       <c r="I249" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J249" s="5"/>
+      <c r="J249" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L249" s="5" t="s">
         <v>207</v>
       </c>
@@ -8244,7 +8740,9 @@
       <c r="I250" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="J250" s="5"/>
+      <c r="J250" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L250" s="5" t="s">
         <v>207</v>
       </c>
@@ -8271,7 +8769,9 @@
       <c r="I251" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J251" s="5"/>
+      <c r="J251" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L251" s="5" t="s">
         <v>207</v>
       </c>
@@ -8298,7 +8798,9 @@
       <c r="I252" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J252" s="5"/>
+      <c r="J252" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L252" s="5" t="s">
         <v>207</v>
       </c>
@@ -8325,7 +8827,9 @@
       <c r="I253" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J253" s="5"/>
+      <c r="J253" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L253" s="5" t="s">
         <v>207</v>
       </c>
@@ -8352,7 +8856,9 @@
       <c r="I254" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J254" s="5"/>
+      <c r="J254" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L254" s="5" t="s">
         <v>207</v>
       </c>
@@ -8379,7 +8885,9 @@
       <c r="I255" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="J255" s="5"/>
+      <c r="J255" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L255" s="5" t="s">
         <v>207</v>
       </c>
@@ -8406,7 +8914,9 @@
       <c r="I256" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J256" s="5"/>
+      <c r="J256" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L256" s="5" t="s">
         <v>207</v>
       </c>
@@ -8433,7 +8943,9 @@
       <c r="I257" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J257" s="5"/>
+      <c r="J257" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L257" s="5" t="s">
         <v>207</v>
       </c>
@@ -8460,7 +8972,9 @@
       <c r="I258" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J258" s="5"/>
+      <c r="J258" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L258" s="5" t="s">
         <v>207</v>
       </c>
@@ -8493,7 +9007,9 @@
       <c r="I259" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="J259" s="11"/>
+      <c r="J259" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K259" s="10"/>
       <c r="L259" s="12" t="s">
         <v>213</v>
@@ -8536,7 +9052,9 @@
       <c r="I260" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J260" s="11"/>
+      <c r="J260" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K260" s="11" t="s">
         <v>216</v>
       </c>
@@ -8587,7 +9105,9 @@
       <c r="I261" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J261" s="11"/>
+      <c r="J261" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K261" s="10"/>
       <c r="L261" s="12" t="s">
         <v>213</v>
@@ -8630,7 +9150,9 @@
       <c r="I262" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J262" s="11"/>
+      <c r="J262" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K262" s="10"/>
       <c r="L262" s="12" t="s">
         <v>213</v>
@@ -8679,7 +9201,9 @@
       <c r="I263" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J263" s="11"/>
+      <c r="J263" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K263" s="10"/>
       <c r="L263" s="12" t="s">
         <v>213</v>
@@ -8720,7 +9244,9 @@
       <c r="I264" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J264" s="11"/>
+      <c r="J264" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K264" s="10"/>
       <c r="L264" s="12" t="s">
         <v>213</v>
@@ -8761,7 +9287,9 @@
       <c r="I265" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J265" s="11"/>
+      <c r="J265" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K265" s="10"/>
       <c r="L265" s="12" t="s">
         <v>213</v>
@@ -8808,7 +9336,9 @@
       <c r="I266" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J266" s="11"/>
+      <c r="J266" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K266" s="10"/>
       <c r="L266" s="12" t="s">
         <v>213</v>
@@ -8855,7 +9385,9 @@
       <c r="I267" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="J267" s="11"/>
+      <c r="J267" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K267" s="10"/>
       <c r="L267" s="12" t="s">
         <v>213</v>
@@ -8892,7 +9424,9 @@
       <c r="I268" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J268" s="5"/>
+      <c r="J268" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L268" s="5" t="s">
         <v>207</v>
       </c>
@@ -8919,7 +9453,9 @@
       <c r="I269" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="J269" s="5"/>
+      <c r="J269" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L269" s="5" t="s">
         <v>207</v>
       </c>
@@ -8946,7 +9482,9 @@
       <c r="I270" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J270" s="5"/>
+      <c r="J270" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L270" s="5" t="s">
         <v>207</v>
       </c>
@@ -8973,7 +9511,9 @@
       <c r="I271" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J271" s="5"/>
+      <c r="J271" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L271" s="5" t="s">
         <v>207</v>
       </c>
@@ -9000,7 +9540,9 @@
       <c r="I272" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J272" s="5"/>
+      <c r="J272" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L272" s="5" t="s">
         <v>207</v>
       </c>
@@ -9030,7 +9572,9 @@
       <c r="I273" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J273" s="5"/>
+      <c r="J273" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L273" s="5" t="s">
         <v>207</v>
       </c>
@@ -9061,7 +9605,9 @@
       <c r="I274" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J274" s="11"/>
+      <c r="J274" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K274" s="10"/>
       <c r="L274" s="12" t="s">
         <v>213</v>
@@ -9102,7 +9648,9 @@
       <c r="I275" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J275" s="11"/>
+      <c r="J275" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K275" s="10"/>
       <c r="L275" s="12" t="s">
         <v>213</v>
@@ -9149,7 +9697,9 @@
       <c r="I276" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J276" s="11"/>
+      <c r="J276" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K276" s="10"/>
       <c r="L276" s="12" t="s">
         <v>213</v>
@@ -9196,7 +9746,9 @@
       <c r="I277" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="J277" s="11"/>
+      <c r="J277" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K277" s="10"/>
       <c r="L277" s="12" t="s">
         <v>213</v>
@@ -9233,7 +9785,9 @@
       <c r="I278" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J278" s="5"/>
+      <c r="J278" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L278" s="5" t="s">
         <v>207</v>
       </c>
@@ -9263,7 +9817,9 @@
       <c r="I279" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J279" s="5"/>
+      <c r="J279" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L279" s="5" t="s">
         <v>207</v>
       </c>
@@ -9302,7 +9858,9 @@
       <c r="I280" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J280" s="5"/>
+      <c r="J280" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L280" s="5" t="s">
         <v>207</v>
       </c>
@@ -9341,7 +9899,9 @@
       <c r="I281" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J281" s="5"/>
+      <c r="J281" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L281" s="5" t="s">
         <v>207</v>
       </c>
@@ -9372,7 +9932,9 @@
       <c r="I282" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="J282" s="11"/>
+      <c r="J282" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K282" s="10"/>
       <c r="L282" s="12" t="s">
         <v>213</v>
@@ -9413,7 +9975,9 @@
       <c r="I283" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="J283" s="11"/>
+      <c r="J283" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K283" s="10"/>
       <c r="L283" s="12" t="s">
         <v>213</v>
@@ -9454,7 +10018,9 @@
       <c r="I284" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J284" s="11"/>
+      <c r="J284" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K284" s="11" t="s">
         <v>243</v>
       </c>
@@ -9497,7 +10063,9 @@
       <c r="I285" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J285" s="11"/>
+      <c r="J285" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K285" s="10"/>
       <c r="L285" s="12" t="s">
         <v>213</v>
@@ -9538,7 +10106,9 @@
       <c r="I286" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J286" s="11"/>
+      <c r="J286" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K286" s="10"/>
       <c r="L286" s="12" t="s">
         <v>213</v>
@@ -9587,7 +10157,9 @@
       <c r="I287" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J287" s="11"/>
+      <c r="J287" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L287" s="12" t="s">
         <v>213</v>
       </c>
@@ -9625,7 +10197,9 @@
       <c r="I288" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="J288" s="11"/>
+      <c r="J288" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L288" s="12" t="s">
         <v>213</v>
       </c>
@@ -9656,7 +10230,9 @@
       <c r="I289" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J289" s="5"/>
+      <c r="J289" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K289"/>
       <c r="L289" s="5" t="s">
         <v>207</v>
@@ -9695,7 +10271,9 @@
       <c r="I290" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J290" s="5"/>
+      <c r="J290" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K290"/>
       <c r="L290" s="5" t="s">
         <v>207</v>
@@ -9734,7 +10312,9 @@
       <c r="I291" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J291" s="5"/>
+      <c r="J291" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K291"/>
       <c r="L291" s="5" t="s">
         <v>207</v>
@@ -9773,7 +10353,9 @@
       <c r="I292" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J292" s="5"/>
+      <c r="J292" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K292"/>
       <c r="L292" s="5" t="s">
         <v>207</v>
@@ -9814,7 +10396,9 @@
       <c r="I293" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="J293" s="5"/>
+      <c r="J293" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K293"/>
       <c r="L293" s="5" t="s">
         <v>207</v>
@@ -9857,7 +10441,9 @@
       <c r="I294" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="J294" s="11"/>
+      <c r="J294" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L294" s="12" t="s">
         <v>213</v>
       </c>
@@ -9889,7 +10475,9 @@
       <c r="I295" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J295" s="11"/>
+      <c r="J295" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L295" s="12" t="s">
         <v>213</v>
       </c>
@@ -9925,7 +10513,9 @@
       <c r="I296" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J296" s="11"/>
+      <c r="J296" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L296" s="12" t="s">
         <v>213</v>
       </c>
@@ -9960,7 +10550,9 @@
       <c r="I297" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J297" s="11"/>
+      <c r="J297" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L297" s="12" t="s">
         <v>213</v>
       </c>
@@ -9991,7 +10583,9 @@
       <c r="I298" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J298" s="5"/>
+      <c r="J298" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K298"/>
       <c r="L298" s="5" t="s">
         <v>207</v>
@@ -10030,7 +10624,9 @@
       <c r="I299" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J299" s="5"/>
+      <c r="J299" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K299"/>
       <c r="L299" s="5" t="s">
         <v>207</v>
@@ -10069,7 +10665,9 @@
       <c r="I300" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J300" s="5"/>
+      <c r="J300" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K300"/>
       <c r="L300" s="5" t="s">
         <v>207</v>
@@ -10110,7 +10708,9 @@
       <c r="I301" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J301" s="5"/>
+      <c r="J301" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K301"/>
       <c r="L301" s="5" t="s">
         <v>207</v>
@@ -10190,7 +10790,9 @@
       <c r="I303" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J303" s="5"/>
+      <c r="J303" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K303"/>
       <c r="L303" s="5" t="s">
         <v>207</v>
@@ -10229,7 +10831,9 @@
       <c r="I304" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J304" s="5"/>
+      <c r="J304" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K304"/>
       <c r="L304" s="5" t="s">
         <v>207</v>
@@ -10268,7 +10872,9 @@
       <c r="I305" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J305" s="5"/>
+      <c r="J305" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K305"/>
       <c r="L305" s="5" t="s">
         <v>207</v>
@@ -10309,7 +10915,9 @@
       <c r="I306" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J306" s="5"/>
+      <c r="J306" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K306"/>
       <c r="L306" s="5" t="s">
         <v>207</v>
@@ -10349,7 +10957,9 @@
       <c r="I307" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J307" s="11"/>
+      <c r="J307" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L307" s="12" t="s">
         <v>213</v>
       </c>
@@ -10381,7 +10991,9 @@
       <c r="I308" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J308" s="11"/>
+      <c r="J308" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L308" s="12" t="s">
         <v>213</v>
       </c>
@@ -10417,7 +11029,9 @@
       <c r="I309" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J309" s="11"/>
+      <c r="J309" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L309" s="12" t="s">
         <v>213</v>
       </c>
@@ -10452,7 +11066,9 @@
       <c r="I310" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J310" s="11"/>
+      <c r="J310" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="L310" s="12" t="s">
         <v>213</v>
       </c>
@@ -10483,7 +11099,9 @@
       <c r="I311" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J311" s="5"/>
+      <c r="J311" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K311"/>
       <c r="L311" s="5" t="s">
         <v>207</v>
@@ -10522,7 +11140,9 @@
       <c r="I312" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J312" s="5"/>
+      <c r="J312" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K312"/>
       <c r="L312" s="5" t="s">
         <v>207</v>
@@ -10561,7 +11181,9 @@
       <c r="I313" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J313" s="5"/>
+      <c r="J313" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K313"/>
       <c r="L313" s="5" t="s">
         <v>207</v>
@@ -10602,7 +11224,9 @@
       <c r="I314" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J314" s="5"/>
+      <c r="J314" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="K314"/>
       <c r="L314" s="5" t="s">
         <v>207</v>
@@ -10617,7 +11241,7 @@
       <c r="T314"/>
       <c r="U314"/>
     </row>
-    <row r="315" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
         <v>27</v>
       </c>
@@ -10646,7 +11270,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>27</v>
       </c>
@@ -10675,7 +11299,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="317" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>27</v>
       </c>
@@ -10704,7 +11328,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="318" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>27</v>
       </c>
@@ -10733,7 +11357,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="319" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>27</v>
       </c>
@@ -10762,7 +11386,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="320" spans="1:21" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>27</v>
       </c>
@@ -12881,8 +13505,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="J232" sqref="J232:J235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18728,7 +19352,9 @@
       <c r="I197" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="J197" s="11"/>
+      <c r="J197" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K197" s="10"/>
       <c r="L197" s="12" t="s">
         <v>256</v>
@@ -18767,7 +19393,9 @@
       <c r="I198" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J198" s="11"/>
+      <c r="J198" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K198" s="10"/>
       <c r="L198" s="12" t="s">
         <v>256</v>
@@ -18806,7 +19434,9 @@
       <c r="I199" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J199" s="11"/>
+      <c r="J199" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K199" s="10"/>
       <c r="L199" s="12" t="s">
         <v>256</v>
@@ -18847,7 +19477,9 @@
       <c r="I200" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="J200" s="11"/>
+      <c r="J200" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K200" s="10"/>
       <c r="L200" s="12" t="s">
         <v>256</v>
@@ -18973,7 +19605,9 @@
       <c r="I204" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J204" s="11"/>
+      <c r="J204" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K204" s="10"/>
       <c r="L204" s="12" t="s">
         <v>256</v>
@@ -19012,7 +19646,9 @@
       <c r="I205" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J205" s="11"/>
+      <c r="J205" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K205" s="10"/>
       <c r="L205" s="12" t="s">
         <v>256</v>
@@ -19053,7 +19689,9 @@
       <c r="I206" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="J206" s="11"/>
+      <c r="J206" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K206" s="10"/>
       <c r="L206" s="12" t="s">
         <v>256</v>
@@ -19179,7 +19817,9 @@
       <c r="I210" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J210" s="11"/>
+      <c r="J210" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K210" s="10"/>
       <c r="L210" s="12" t="s">
         <v>256</v>
@@ -19220,7 +19860,9 @@
       <c r="I211" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J211" s="11"/>
+      <c r="J211" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K211" s="10"/>
       <c r="L211" s="12" t="s">
         <v>256</v>
@@ -19267,7 +19909,9 @@
       <c r="I212" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="J212" s="11"/>
+      <c r="J212" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K212" s="10"/>
       <c r="L212" s="12" t="s">
         <v>256</v>
@@ -19393,7 +20037,9 @@
       <c r="I216" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="J216" s="11"/>
+      <c r="J216" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K216" s="10"/>
       <c r="L216" s="12" t="s">
         <v>256</v>
@@ -19432,7 +20078,9 @@
       <c r="I217" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="J217" s="11"/>
+      <c r="J217" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K217" s="10"/>
       <c r="L217" s="12" t="s">
         <v>256</v>
@@ -19471,7 +20119,9 @@
       <c r="I218" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J218" s="11"/>
+      <c r="J218" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K218" s="10"/>
       <c r="L218" s="12" t="s">
         <v>256</v>
@@ -19510,7 +20160,9 @@
       <c r="I219" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J219" s="11"/>
+      <c r="J219" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K219" s="10"/>
       <c r="L219" s="12" t="s">
         <v>256</v>
@@ -19551,7 +20203,9 @@
       <c r="I220" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="J220" s="11"/>
+      <c r="J220" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K220" s="10"/>
       <c r="L220" s="12" t="s">
         <v>256</v>
@@ -19677,7 +20331,9 @@
       <c r="I224" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J224" s="11"/>
+      <c r="J224" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K224" s="10"/>
       <c r="L224" s="12" t="s">
         <v>256</v>
@@ -19716,7 +20372,9 @@
       <c r="I225" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J225" s="11"/>
+      <c r="J225" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K225" s="10"/>
       <c r="L225" s="12" t="s">
         <v>256</v>
@@ -19755,7 +20413,9 @@
       <c r="I226" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="J226" s="11"/>
+      <c r="J226" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K226" s="10"/>
       <c r="L226" s="12" t="s">
         <v>256</v>
@@ -19968,7 +20628,9 @@
       <c r="I233" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J233" s="11"/>
+      <c r="J233" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K233" s="10"/>
       <c r="L233" s="12" t="s">
         <v>256</v>
@@ -20007,7 +20669,9 @@
       <c r="I234" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J234" s="11"/>
+      <c r="J234" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K234" s="10"/>
       <c r="L234" s="12" t="s">
         <v>256</v>
@@ -20046,7 +20710,9 @@
       <c r="I235" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="J235" s="11"/>
+      <c r="J235" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="K235" s="10"/>
       <c r="L235" s="12" t="s">
         <v>256</v>

--- a/data/T30R11_data.xlsx
+++ b/data/T30R11_data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE35E0F4-382E-41D5-81AF-6FC3804F0792}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05D82F-4208-4364-A8DA-FD739F13C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1940Survey" sheetId="1" r:id="rId1"/>
     <sheet name="1940snotes" sheetId="4" r:id="rId2"/>
     <sheet name="1880Survey" sheetId="2" r:id="rId3"/>
     <sheet name="1880snotes" sheetId="5" r:id="rId4"/>
-    <sheet name="2004Survey" sheetId="6" r:id="rId5"/>
+    <sheet name="2019Survey" sheetId="6" r:id="rId5"/>
     <sheet name="species" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -23550,8 +23550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357EFA9-EC40-4ADB-9293-9822615EE6BA}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24350,7 +24350,7 @@
         <v>226</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/T30R11_data.xlsx
+++ b/data/T30R11_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Ecology\Student_folders_&amp;_files\Kara 2020\GLO\Sage_GLO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC05D82F-4208-4364-A8DA-FD739F13C7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847C5469-0902-4E6A-821D-B651A8F8DEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23550,8 +23550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C357EFA9-EC40-4ADB-9293-9822615EE6BA}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23954,7 +23954,7 @@
         <v>139</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
